--- a/spec/files/small_list.xlsx
+++ b/spec/files/small_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="27520" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="27520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -1487,8 +1487,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1233">
+  <cellStyleXfs count="1235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2772,7 +2774,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1233">
+  <cellStyles count="1235">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3389,6 +3391,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1228" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1234" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4005,6 +4008,7 @@
     <cellStyle name="Hyperlink" xfId="1227" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1233" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4340,7 +4344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
@@ -4492,9 +4496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5097,7 +5101,9 @@
       <c r="K21" s="3">
         <v>4</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
       <c r="M21" s="3">
         <f>(K21-J21)/6</f>
         <v>1.3333333333333333</v>
@@ -5134,7 +5140,9 @@
       <c r="K22" s="3">
         <v>-4</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
       <c r="M22" s="3">
         <f>(K22-J22)/6</f>
         <v>-1.3333333333333333</v>
@@ -5494,6 +5502,10 @@
       </c>
       <c r="L36" s="20">
         <v>25</v>
+      </c>
+      <c r="M36" s="3">
+        <f>(K36-J36)/6</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>30</v>

--- a/spec/files/small_list.xlsx
+++ b/spec/files/small_list.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="456">
   <si>
     <t>type</t>
   </si>
@@ -1387,6 +1387,12 @@
   </si>
   <si>
     <t>../../spec/files/small_seed.osm</t>
+  </si>
+  <si>
+    <t>Roof R Value</t>
+  </si>
+  <si>
+    <t>Wall R Value</t>
   </si>
 </sst>
 </file>
@@ -4494,11 +4500,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M36" sqref="M36"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5199,7 +5205,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>271</v>
+        <v>455</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>272</v>
@@ -5326,7 +5332,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>271</v>
+        <v>454</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>272</v>
@@ -5433,10 +5439,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>81</v>
+        <v>341</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>80</v>
@@ -5478,10 +5484,10 @@
         <v>27</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>15</v>
@@ -5491,175 +5497,23 @@
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="L36" s="20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M36" s="3">
         <f>(K36-J36)/6</f>
-        <v>8.3333333333333339</v>
+        <v>15</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" customFormat="1" ht="15">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20">
-        <v>0</v>
-      </c>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38" spans="1:14" customFormat="1" ht="15">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20">
-        <v>0</v>
-      </c>
-      <c r="I38" s="20"/>
-    </row>
-    <row r="39" spans="1:14" customFormat="1" ht="15">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20">
-        <v>1</v>
-      </c>
-      <c r="I39" s="20"/>
-    </row>
-    <row r="40" spans="1:14" customFormat="1" ht="15">
-      <c r="A40" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-    </row>
-    <row r="41" spans="1:14" customFormat="1" ht="15">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" customFormat="1" ht="15">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20">
-        <v>0</v>
-      </c>
-      <c r="I42" s="20"/>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>90</v>
-      </c>
-      <c r="L42" s="20">
-        <v>20</v>
-      </c>
-      <c r="M42" s="3">
-        <f>(K42-J42)/6</f>
-        <v>15</v>
-      </c>
-      <c r="N42" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/spec/files/small_list.xlsx
+++ b/spec/files/small_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="27520" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -4502,9 +4502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5141,17 +5141,17 @@
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="3">
+        <v>-4</v>
+      </c>
+      <c r="K22" s="3">
         <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>-4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
         <f>(K22-J22)/6</f>
-        <v>-1.3333333333333333</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>30</v>

--- a/spec/files/small_list.xlsx
+++ b/spec/files/small_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
+    <workbookView xWindow="18020" yWindow="3240" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <t>Path (relative to this excel file)</t>
   </si>
   <si>
-    <t>../analysis</t>
-  </si>
-  <si>
     <t>Files to include (absolute paths here). If a directory then it will include all subfolders and files</t>
   </si>
   <si>
@@ -1393,6 +1390,9 @@
   </si>
   <si>
     <t>Wall R Value</t>
+  </si>
+  <si>
+    <t>../../spec/files/export/analysis</t>
   </si>
 </sst>
 </file>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4350,8 +4350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4373,10 +4373,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4384,7 +4384,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4392,7 +4392,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1">
@@ -4416,7 +4416,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4444,7 +4444,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1">
@@ -4455,7 +4455,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>45</v>
@@ -4466,13 +4466,13 @@
         <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="28">
@@ -4483,7 +4483,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="12"/>
     </row>
@@ -4502,7 +4502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
@@ -4529,7 +4529,7 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4545,7 +4545,7 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R1" s="21"/>
       <c r="S1" s="21"/>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>43</v>
@@ -4589,7 +4589,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>12</v>
@@ -4636,13 +4636,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -4661,23 +4661,23 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
         <v>56</v>
       </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4692,16 +4692,16 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6"/>
       <c r="H6">
@@ -4732,16 +4732,16 @@
         <v>26</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
         <v>59</v>
       </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7"/>
       <c r="H7">
@@ -4760,16 +4760,16 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8"/>
       <c r="H8">
@@ -4788,16 +4788,16 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9"/>
       <c r="H9">
@@ -4816,16 +4816,16 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
         <v>65</v>
       </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="b">
@@ -4844,16 +4844,16 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
         <v>67</v>
       </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11"/>
       <c r="H11">
@@ -4872,16 +4872,16 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="D12" t="s">
-        <v>70</v>
-      </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12"/>
       <c r="H12">
@@ -4900,16 +4900,16 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" t="s">
-        <v>72</v>
-      </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13"/>
       <c r="H13">
@@ -4927,13 +4927,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:22" customFormat="1">
@@ -4941,22 +4941,22 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:22" customFormat="1">
@@ -4964,16 +4964,16 @@
         <v>27</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16">
         <v>30</v>
@@ -5000,16 +5000,16 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -5040,16 +5040,16 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
         <v>71</v>
       </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -5060,13 +5060,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>202</v>
-      </c>
       <c r="D20" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -5085,16 +5085,16 @@
         <v>27</v>
       </c>
       <c r="C21" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>203</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>204</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20">
@@ -5124,16 +5124,16 @@
         <v>27</v>
       </c>
       <c r="C22" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>205</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>206</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20">
@@ -5163,16 +5163,16 @@
         <v>26</v>
       </c>
       <c r="C23" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>208</v>
-      </c>
       <c r="E23" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20" t="b">
@@ -5185,13 +5185,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>270</v>
-      </c>
       <c r="D24" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -5205,16 +5205,16 @@
         <v>27</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20">
@@ -5244,16 +5244,16 @@
         <v>26</v>
       </c>
       <c r="C26" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>274</v>
-      </c>
       <c r="E26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20">
@@ -5267,16 +5267,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>276</v>
-      </c>
       <c r="E27" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20">
@@ -5290,16 +5290,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>278</v>
-      </c>
       <c r="E28" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20">
@@ -5312,13 +5312,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>280</v>
-      </c>
       <c r="D29" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -5332,16 +5332,16 @@
         <v>27</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20">
@@ -5371,16 +5371,16 @@
         <v>26</v>
       </c>
       <c r="C31" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="D31" s="20" t="s">
-        <v>274</v>
-      </c>
       <c r="E31" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20">
@@ -5394,16 +5394,16 @@
         <v>26</v>
       </c>
       <c r="C32" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>276</v>
-      </c>
       <c r="E32" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20">
@@ -5417,16 +5417,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>278</v>
-      </c>
       <c r="E33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20">
@@ -5439,13 +5439,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>342</v>
-      </c>
       <c r="D34" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -5459,23 +5459,23 @@
         <v>26</v>
       </c>
       <c r="C35" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="20" t="s">
-        <v>57</v>
-      </c>
       <c r="E35" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:14" customFormat="1" ht="15">
@@ -5484,16 +5484,16 @@
         <v>27</v>
       </c>
       <c r="C36" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>343</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>344</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20">
@@ -5557,13 +5557,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -5577,16 +5577,16 @@
         <v>26</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>103</v>
-      </c>
       <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -5598,16 +5598,16 @@
         <v>26</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>105</v>
-      </c>
       <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="b">
@@ -5621,16 +5621,16 @@
         <v>26</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>107</v>
-      </c>
       <c r="E4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20">
@@ -5644,16 +5644,16 @@
         <v>26</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>109</v>
-      </c>
       <c r="E5" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20">
@@ -5667,16 +5667,16 @@
         <v>26</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20">
@@ -5690,16 +5690,16 @@
         <v>26</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="b">
@@ -5713,16 +5713,16 @@
         <v>26</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E8" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20">
@@ -5736,16 +5736,16 @@
         <v>26</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>111</v>
-      </c>
       <c r="E9" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20">
@@ -5759,16 +5759,16 @@
         <v>26</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E10" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20">
@@ -5781,13 +5781,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>113</v>
-      </c>
       <c r="D11" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -5801,16 +5801,16 @@
         <v>26</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>103</v>
-      </c>
       <c r="E12" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -5822,16 +5822,16 @@
         <v>26</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>105</v>
-      </c>
       <c r="E13" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="b">
@@ -5845,16 +5845,16 @@
         <v>26</v>
       </c>
       <c r="C14" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>107</v>
-      </c>
       <c r="E14" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20">
@@ -5868,16 +5868,16 @@
         <v>26</v>
       </c>
       <c r="C15" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>109</v>
-      </c>
       <c r="E15" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20">
@@ -5891,16 +5891,16 @@
         <v>26</v>
       </c>
       <c r="C16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E16" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20">
@@ -5914,16 +5914,16 @@
         <v>26</v>
       </c>
       <c r="C17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E17" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="b">
@@ -5937,16 +5937,16 @@
         <v>26</v>
       </c>
       <c r="C18" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E18" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20">
@@ -5960,16 +5960,16 @@
         <v>26</v>
       </c>
       <c r="C19" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>111</v>
-      </c>
       <c r="E19" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20">
@@ -5983,16 +5983,16 @@
         <v>26</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E20" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20">
@@ -6005,13 +6005,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>115</v>
-      </c>
       <c r="D21" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -6025,16 +6025,16 @@
         <v>26</v>
       </c>
       <c r="C22" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>105</v>
-      </c>
       <c r="E22" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20" t="b">
@@ -6048,20 +6048,20 @@
         <v>26</v>
       </c>
       <c r="C23" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="E23" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>117</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>118</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I23" s="20"/>
     </row>
@@ -6071,16 +6071,16 @@
         <v>26</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20">
@@ -6094,16 +6094,16 @@
         <v>26</v>
       </c>
       <c r="C25" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>109</v>
-      </c>
       <c r="E25" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20">
@@ -6117,16 +6117,16 @@
         <v>26</v>
       </c>
       <c r="C26" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20">
@@ -6140,16 +6140,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E27" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20" t="b">
@@ -6163,16 +6163,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E28" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20">
@@ -6186,16 +6186,16 @@
         <v>26</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20">
@@ -6209,16 +6209,16 @@
         <v>26</v>
       </c>
       <c r="C30" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E30" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20">
@@ -6231,13 +6231,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>122</v>
-      </c>
       <c r="D31" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -6251,16 +6251,16 @@
         <v>26</v>
       </c>
       <c r="C32" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>124</v>
-      </c>
       <c r="E32" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -6272,16 +6272,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>105</v>
-      </c>
       <c r="E33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20" t="b">
@@ -6295,16 +6295,16 @@
         <v>26</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20">
@@ -6318,16 +6318,16 @@
         <v>26</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20">
@@ -6341,16 +6341,16 @@
         <v>26</v>
       </c>
       <c r="C36" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E36" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20">
@@ -6364,16 +6364,16 @@
         <v>26</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20" t="b">
@@ -6387,16 +6387,16 @@
         <v>26</v>
       </c>
       <c r="C38" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E38" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20">
@@ -6410,16 +6410,16 @@
         <v>26</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20">
@@ -6433,16 +6433,16 @@
         <v>26</v>
       </c>
       <c r="C40" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E40" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="20">
@@ -6455,13 +6455,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>130</v>
-      </c>
       <c r="D41" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -6475,16 +6475,16 @@
         <v>26</v>
       </c>
       <c r="C42" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="20" t="s">
-        <v>132</v>
-      </c>
       <c r="E42" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
@@ -6496,16 +6496,16 @@
         <v>26</v>
       </c>
       <c r="C43" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="20" t="s">
-        <v>105</v>
-      </c>
       <c r="E43" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="20" t="b">
@@ -6519,16 +6519,16 @@
         <v>26</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20">
@@ -6542,16 +6542,16 @@
         <v>26</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="20">
@@ -6565,16 +6565,16 @@
         <v>26</v>
       </c>
       <c r="C46" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E46" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20">
@@ -6588,16 +6588,16 @@
         <v>26</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="20" t="b">
@@ -6611,16 +6611,16 @@
         <v>26</v>
       </c>
       <c r="C48" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E48" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="20">
@@ -6634,16 +6634,16 @@
         <v>26</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="20">
@@ -6657,16 +6657,16 @@
         <v>26</v>
       </c>
       <c r="C50" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E50" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="20">
@@ -6679,13 +6679,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="20" t="s">
-        <v>134</v>
-      </c>
       <c r="D51" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -6699,16 +6699,16 @@
         <v>26</v>
       </c>
       <c r="C52" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="20" t="s">
-        <v>132</v>
-      </c>
       <c r="E52" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -6720,16 +6720,16 @@
         <v>26</v>
       </c>
       <c r="C53" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="20" t="s">
-        <v>105</v>
-      </c>
       <c r="E53" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="20" t="b">
@@ -6743,16 +6743,16 @@
         <v>26</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="20">
@@ -6766,16 +6766,16 @@
         <v>26</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="20">
@@ -6789,16 +6789,16 @@
         <v>26</v>
       </c>
       <c r="C56" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E56" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="20">
@@ -6812,16 +6812,16 @@
         <v>26</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="20" t="b">
@@ -6835,16 +6835,16 @@
         <v>26</v>
       </c>
       <c r="C58" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E58" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20">
@@ -6858,16 +6858,16 @@
         <v>26</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="20">
@@ -6881,16 +6881,16 @@
         <v>26</v>
       </c>
       <c r="C60" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E60" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="20">
@@ -6903,13 +6903,13 @@
         <v>0</v>
       </c>
       <c r="B61" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="20" t="s">
-        <v>136</v>
-      </c>
       <c r="D61" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -6923,16 +6923,16 @@
         <v>26</v>
       </c>
       <c r="C62" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D62" s="20" t="s">
-        <v>138</v>
-      </c>
       <c r="E62" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
@@ -6944,23 +6944,23 @@
         <v>26</v>
       </c>
       <c r="C63" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D63" s="20" t="s">
-        <v>140</v>
-      </c>
       <c r="E63" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G63" s="20"/>
       <c r="H63" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="I63" s="20" t="s">
         <v>420</v>
-      </c>
-      <c r="I63" s="20" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15">
@@ -6969,16 +6969,16 @@
         <v>26</v>
       </c>
       <c r="C64" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D64" s="20" t="s">
-        <v>105</v>
-      </c>
       <c r="E64" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="20" t="b">
@@ -6992,16 +6992,16 @@
         <v>26</v>
       </c>
       <c r="C65" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D65" s="20" t="s">
-        <v>142</v>
-      </c>
       <c r="E65" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="20">
@@ -7015,16 +7015,16 @@
         <v>26</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="20">
@@ -7038,16 +7038,16 @@
         <v>26</v>
       </c>
       <c r="C67" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E67" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="20">
@@ -7061,16 +7061,16 @@
         <v>26</v>
       </c>
       <c r="C68" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E68" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G68" s="20"/>
       <c r="H68" s="20" t="b">
@@ -7084,16 +7084,16 @@
         <v>26</v>
       </c>
       <c r="C69" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D69" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E69" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G69" s="20"/>
       <c r="H69" s="20">
@@ -7107,16 +7107,16 @@
         <v>26</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="20">
@@ -7130,16 +7130,16 @@
         <v>26</v>
       </c>
       <c r="C71" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E71" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="20">
@@ -7152,13 +7152,13 @@
         <v>0</v>
       </c>
       <c r="B72" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="20" t="s">
-        <v>146</v>
-      </c>
       <c r="D72" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -7172,16 +7172,16 @@
         <v>26</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
@@ -7193,16 +7193,16 @@
         <v>26</v>
       </c>
       <c r="C74" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="20" t="s">
-        <v>149</v>
-      </c>
       <c r="E74" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="20">
@@ -7216,23 +7216,23 @@
         <v>26</v>
       </c>
       <c r="C75" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D75" s="20" t="s">
-        <v>151</v>
-      </c>
       <c r="E75" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G75" s="20"/>
       <c r="H75" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="I75" s="20" t="s">
         <v>422</v>
-      </c>
-      <c r="I75" s="20" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15">
@@ -7241,16 +7241,16 @@
         <v>26</v>
       </c>
       <c r="C76" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D76" s="20" t="s">
-        <v>153</v>
-      </c>
       <c r="E76" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G76" s="20"/>
       <c r="H76" s="20">
@@ -7264,16 +7264,16 @@
         <v>26</v>
       </c>
       <c r="C77" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="D77" s="20" t="s">
-        <v>155</v>
-      </c>
       <c r="E77" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G77" s="20"/>
       <c r="H77" s="20">
@@ -7287,16 +7287,16 @@
         <v>26</v>
       </c>
       <c r="C78" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D78" s="20" t="s">
-        <v>157</v>
-      </c>
       <c r="E78" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G78" s="20"/>
       <c r="H78" s="20">
@@ -7310,16 +7310,16 @@
         <v>26</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G79" s="20"/>
       <c r="H79" s="20">
@@ -7333,16 +7333,16 @@
         <v>26</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G80" s="20"/>
       <c r="H80" s="20">
@@ -7356,16 +7356,16 @@
         <v>26</v>
       </c>
       <c r="C81" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D81" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E81" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G81" s="20"/>
       <c r="H81" s="20">
@@ -7379,16 +7379,16 @@
         <v>26</v>
       </c>
       <c r="C82" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D82" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E82" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G82" s="20"/>
       <c r="H82" s="20" t="b">
@@ -7402,16 +7402,16 @@
         <v>26</v>
       </c>
       <c r="C83" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D83" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E83" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="20">
@@ -7425,16 +7425,16 @@
         <v>26</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="20">
@@ -7448,16 +7448,16 @@
         <v>26</v>
       </c>
       <c r="C85" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D85" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E85" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G85" s="20"/>
       <c r="H85" s="20">
@@ -7470,13 +7470,13 @@
         <v>0</v>
       </c>
       <c r="B86" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="20" t="s">
-        <v>162</v>
-      </c>
       <c r="D86" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -7490,16 +7490,16 @@
         <v>26</v>
       </c>
       <c r="C87" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D87" s="20" t="s">
-        <v>164</v>
-      </c>
       <c r="E87" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G87" s="20"/>
       <c r="H87" s="20">
@@ -7513,20 +7513,20 @@
         <v>26</v>
       </c>
       <c r="C88" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D88" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D88" s="20" t="s">
-        <v>166</v>
-      </c>
       <c r="E88" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G88" s="20"/>
       <c r="H88" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I88" s="20"/>
     </row>
@@ -7536,16 +7536,16 @@
         <v>26</v>
       </c>
       <c r="C89" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D89" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D89" s="20" t="s">
-        <v>168</v>
-      </c>
       <c r="E89" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G89" s="20"/>
       <c r="H89" s="20" t="b">
@@ -7559,16 +7559,16 @@
         <v>26</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E90" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G90" s="20"/>
       <c r="H90" s="20">
@@ -7582,16 +7582,16 @@
         <v>26</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E91" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G91" s="20"/>
       <c r="H91" s="20">
@@ -7605,16 +7605,16 @@
         <v>26</v>
       </c>
       <c r="C92" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D92" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E92" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G92" s="20"/>
       <c r="H92" s="20">
@@ -7628,16 +7628,16 @@
         <v>26</v>
       </c>
       <c r="C93" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D93" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E93" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="20" t="b">
@@ -7651,16 +7651,16 @@
         <v>26</v>
       </c>
       <c r="C94" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D94" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D94" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E94" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="20">
@@ -7674,16 +7674,16 @@
         <v>26</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E95" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G95" s="20"/>
       <c r="H95" s="20">
@@ -7697,16 +7697,16 @@
         <v>26</v>
       </c>
       <c r="C96" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D96" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E96" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="20">
@@ -7719,13 +7719,13 @@
         <v>0</v>
       </c>
       <c r="B97" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="D97" s="20" t="s">
         <v>173</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>174</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -7739,23 +7739,23 @@
         <v>26</v>
       </c>
       <c r="C98" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D98" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D98" s="20" t="s">
-        <v>176</v>
-      </c>
       <c r="E98" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="I98" s="20" t="s">
         <v>425</v>
-      </c>
-      <c r="I98" s="20" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15">
@@ -7763,13 +7763,13 @@
         <v>0</v>
       </c>
       <c r="B99" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C99" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C99" s="20" t="s">
-        <v>178</v>
-      </c>
       <c r="D99" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -7783,16 +7783,16 @@
         <v>26</v>
       </c>
       <c r="C100" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D100" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D100" s="20" t="s">
-        <v>180</v>
-      </c>
       <c r="E100" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F100" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
@@ -7804,23 +7804,23 @@
         <v>26</v>
       </c>
       <c r="C101" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D101" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D101" s="20" t="s">
-        <v>182</v>
-      </c>
       <c r="E101" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F101" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G101" s="20"/>
       <c r="H101" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="I101" s="20" t="s">
         <v>427</v>
-      </c>
-      <c r="I101" s="20" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15">
@@ -7828,13 +7828,13 @@
         <v>0</v>
       </c>
       <c r="B102" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C102" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C102" s="20" t="s">
-        <v>184</v>
-      </c>
       <c r="D102" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -7848,16 +7848,16 @@
         <v>26</v>
       </c>
       <c r="C103" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D103" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D103" s="20" t="s">
-        <v>186</v>
-      </c>
       <c r="E103" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G103" s="20"/>
       <c r="H103" s="20">
@@ -7871,23 +7871,23 @@
         <v>26</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E104" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G104" s="20"/>
       <c r="H104" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I104" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15">
@@ -7896,16 +7896,16 @@
         <v>26</v>
       </c>
       <c r="C105" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D105" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D105" s="20" t="s">
-        <v>189</v>
-      </c>
       <c r="E105" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="20" t="b">
@@ -7919,16 +7919,16 @@
         <v>26</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E106" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
@@ -7939,13 +7939,13 @@
         <v>0</v>
       </c>
       <c r="B107" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C107" s="20" t="s">
-        <v>192</v>
-      </c>
       <c r="D107" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
@@ -7959,23 +7959,23 @@
         <v>26</v>
       </c>
       <c r="C108" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D108" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D108" s="20" t="s">
-        <v>194</v>
-      </c>
       <c r="E108" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G108" s="20"/>
       <c r="H108" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="I108" s="20" t="s">
         <v>429</v>
-      </c>
-      <c r="I108" s="20" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15">
@@ -7984,16 +7984,16 @@
         <v>26</v>
       </c>
       <c r="C109" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D109" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="D109" s="20" t="s">
-        <v>196</v>
-      </c>
       <c r="E109" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="20">
@@ -8007,16 +8007,16 @@
         <v>26</v>
       </c>
       <c r="C110" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D110" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D110" s="20" t="s">
-        <v>198</v>
-      </c>
       <c r="E110" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G110" s="20"/>
       <c r="H110" s="20">
@@ -8030,16 +8030,16 @@
         <v>26</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E111" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G111" s="20"/>
       <c r="H111" s="20">
@@ -8053,16 +8053,16 @@
         <v>26</v>
       </c>
       <c r="C112" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D112" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D112" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E112" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G112" s="20"/>
       <c r="H112" s="20">
@@ -8076,16 +8076,16 @@
         <v>26</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E113" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F113" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G113" s="20"/>
       <c r="H113" s="20">
@@ -8099,16 +8099,16 @@
         <v>26</v>
       </c>
       <c r="C114" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D114" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D114" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E114" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G114" s="20"/>
       <c r="H114" s="20">
@@ -8121,13 +8121,13 @@
         <v>0</v>
       </c>
       <c r="B115" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C115" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="C115" s="20" t="s">
-        <v>202</v>
-      </c>
       <c r="D115" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
@@ -8141,16 +8141,16 @@
         <v>26</v>
       </c>
       <c r="C116" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D116" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="D116" s="20" t="s">
-        <v>204</v>
-      </c>
       <c r="E116" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="20">
@@ -8164,16 +8164,16 @@
         <v>26</v>
       </c>
       <c r="C117" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D117" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D117" s="20" t="s">
-        <v>206</v>
-      </c>
       <c r="E117" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G117" s="20"/>
       <c r="H117" s="20">
@@ -8187,16 +8187,16 @@
         <v>26</v>
       </c>
       <c r="C118" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D118" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D118" s="20" t="s">
-        <v>208</v>
-      </c>
       <c r="E118" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F118" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G118" s="20"/>
       <c r="H118" s="20" t="b">
@@ -8209,13 +8209,13 @@
         <v>0</v>
       </c>
       <c r="B119" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C119" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C119" s="20" t="s">
-        <v>210</v>
-      </c>
       <c r="D119" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -8229,16 +8229,16 @@
         <v>26</v>
       </c>
       <c r="C120" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D120" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="D120" s="20" t="s">
-        <v>212</v>
-      </c>
       <c r="E120" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G120" s="20"/>
       <c r="H120" s="20">
@@ -8252,16 +8252,16 @@
         <v>26</v>
       </c>
       <c r="C121" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D121" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="D121" s="20" t="s">
-        <v>214</v>
-      </c>
       <c r="E121" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F121" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="20">
@@ -8275,16 +8275,16 @@
         <v>26</v>
       </c>
       <c r="C122" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D122" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="D122" s="20" t="s">
-        <v>216</v>
-      </c>
       <c r="E122" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F122" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G122" s="20"/>
       <c r="H122" s="20">
@@ -8298,16 +8298,16 @@
         <v>26</v>
       </c>
       <c r="C123" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D123" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="D123" s="20" t="s">
-        <v>218</v>
-      </c>
       <c r="E123" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G123" s="20"/>
       <c r="H123" s="20">
@@ -8321,16 +8321,16 @@
         <v>26</v>
       </c>
       <c r="C124" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D124" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="D124" s="20" t="s">
-        <v>220</v>
-      </c>
       <c r="E124" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F124" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G124" s="20"/>
       <c r="H124" s="20" t="b">
@@ -8344,16 +8344,16 @@
         <v>26</v>
       </c>
       <c r="C125" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D125" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="D125" s="20" t="s">
-        <v>222</v>
-      </c>
       <c r="E125" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G125" s="20"/>
       <c r="H125" s="20" t="b">
@@ -8366,13 +8366,13 @@
         <v>0</v>
       </c>
       <c r="B126" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C126" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C126" s="20" t="s">
-        <v>224</v>
-      </c>
       <c r="D126" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
@@ -8386,23 +8386,23 @@
         <v>26</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E127" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F127" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G127" s="20"/>
       <c r="H127" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="I127" s="20" t="s">
         <v>431</v>
-      </c>
-      <c r="I127" s="20" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15">
@@ -8411,16 +8411,16 @@
         <v>26</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E128" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F128" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G128" s="20"/>
       <c r="H128" s="20" t="b">
@@ -8434,16 +8434,16 @@
         <v>26</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E129" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F129" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G129" s="20"/>
       <c r="H129" s="20">
@@ -8457,16 +8457,16 @@
         <v>26</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E130" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F130" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G130" s="20"/>
       <c r="H130" s="20">
@@ -8480,16 +8480,16 @@
         <v>26</v>
       </c>
       <c r="C131" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D131" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D131" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E131" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G131" s="20"/>
       <c r="H131" s="20">
@@ -8503,16 +8503,16 @@
         <v>26</v>
       </c>
       <c r="C132" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D132" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D132" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E132" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G132" s="20"/>
       <c r="H132" s="20" t="b">
@@ -8526,16 +8526,16 @@
         <v>26</v>
       </c>
       <c r="C133" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D133" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D133" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E133" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F133" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G133" s="20"/>
       <c r="H133" s="20">
@@ -8549,16 +8549,16 @@
         <v>26</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E134" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F134" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G134" s="20"/>
       <c r="H134" s="20">
@@ -8572,16 +8572,16 @@
         <v>26</v>
       </c>
       <c r="C135" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D135" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D135" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E135" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F135" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G135" s="20"/>
       <c r="H135" s="20">
@@ -8594,13 +8594,13 @@
         <v>0</v>
       </c>
       <c r="B136" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C136" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C136" s="20" t="s">
-        <v>231</v>
-      </c>
       <c r="D136" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
@@ -8614,23 +8614,23 @@
         <v>26</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E137" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F137" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G137" s="20"/>
       <c r="H137" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="I137" s="20" t="s">
         <v>431</v>
-      </c>
-      <c r="I137" s="20" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15">
@@ -8639,16 +8639,16 @@
         <v>26</v>
       </c>
       <c r="C138" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D138" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D138" s="20" t="s">
-        <v>233</v>
-      </c>
       <c r="E138" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G138" s="20"/>
       <c r="H138" s="20"/>
@@ -8660,16 +8660,16 @@
         <v>26</v>
       </c>
       <c r="C139" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D139" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D139" s="20" t="s">
-        <v>235</v>
-      </c>
       <c r="E139" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G139" s="20"/>
       <c r="H139" s="20">
@@ -8683,16 +8683,16 @@
         <v>26</v>
       </c>
       <c r="C140" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D140" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D140" s="20" t="s">
-        <v>237</v>
-      </c>
       <c r="E140" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G140" s="20"/>
       <c r="H140" s="20">
@@ -8706,16 +8706,16 @@
         <v>26</v>
       </c>
       <c r="C141" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D141" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D141" s="20" t="s">
-        <v>239</v>
-      </c>
       <c r="E141" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F141" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G141" s="20"/>
       <c r="H141" s="20">
@@ -8729,16 +8729,16 @@
         <v>26</v>
       </c>
       <c r="C142" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D142" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="D142" s="20" t="s">
-        <v>241</v>
-      </c>
       <c r="E142" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F142" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G142" s="20"/>
       <c r="H142" s="20">
@@ -8752,16 +8752,16 @@
         <v>26</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E143" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F143" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G143" s="20"/>
       <c r="H143" s="20" t="b">
@@ -8775,16 +8775,16 @@
         <v>26</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E144" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F144" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G144" s="20"/>
       <c r="H144" s="20">
@@ -8798,16 +8798,16 @@
         <v>26</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E145" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F145" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G145" s="20"/>
       <c r="H145" s="20">
@@ -8821,16 +8821,16 @@
         <v>26</v>
       </c>
       <c r="C146" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D146" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D146" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E146" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F146" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G146" s="20"/>
       <c r="H146" s="20">
@@ -8844,16 +8844,16 @@
         <v>26</v>
       </c>
       <c r="C147" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D147" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D147" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E147" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F147" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G147" s="20"/>
       <c r="H147" s="20" t="b">
@@ -8867,16 +8867,16 @@
         <v>26</v>
       </c>
       <c r="C148" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D148" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D148" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E148" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F148" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G148" s="20"/>
       <c r="H148" s="20">
@@ -8890,16 +8890,16 @@
         <v>26</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E149" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F149" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="20">
@@ -8913,16 +8913,16 @@
         <v>26</v>
       </c>
       <c r="C150" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D150" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D150" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E150" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F150" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G150" s="20"/>
       <c r="H150" s="20">
@@ -8935,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="B151" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C151" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="C151" s="20" t="s">
+      <c r="D151" s="20" t="s">
         <v>246</v>
-      </c>
-      <c r="D151" s="20" t="s">
-        <v>247</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
@@ -8955,16 +8955,16 @@
         <v>26</v>
       </c>
       <c r="C152" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D152" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="D152" s="20" t="s">
-        <v>249</v>
-      </c>
       <c r="E152" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F152" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G152" s="20"/>
       <c r="H152" s="20">
@@ -8977,13 +8977,13 @@
         <v>0</v>
       </c>
       <c r="B153" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C153" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C153" s="20" t="s">
-        <v>251</v>
-      </c>
       <c r="D153" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
@@ -8997,20 +8997,20 @@
         <v>26</v>
       </c>
       <c r="C154" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D154" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="D154" s="20" t="s">
-        <v>253</v>
-      </c>
       <c r="E154" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F154" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G154" s="20"/>
       <c r="H154" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I154" s="20"/>
     </row>
@@ -9020,20 +9020,20 @@
         <v>26</v>
       </c>
       <c r="C155" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D155" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="D155" s="20" t="s">
-        <v>255</v>
-      </c>
       <c r="E155" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F155" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G155" s="20"/>
       <c r="H155" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I155" s="20"/>
     </row>
@@ -9042,13 +9042,13 @@
         <v>0</v>
       </c>
       <c r="B156" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C156" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="C156" s="20" t="s">
-        <v>257</v>
-      </c>
       <c r="D156" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
@@ -9062,23 +9062,23 @@
         <v>26</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E157" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F157" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G157" s="20"/>
       <c r="H157" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="I157" s="20" t="s">
         <v>431</v>
-      </c>
-      <c r="I157" s="20" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15">
@@ -9087,16 +9087,16 @@
         <v>26</v>
       </c>
       <c r="C158" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="D158" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="D158" s="20" t="s">
-        <v>259</v>
-      </c>
       <c r="E158" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F158" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G158" s="20"/>
       <c r="H158" s="20">
@@ -9110,16 +9110,16 @@
         <v>26</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D159" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E159" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F159" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G159" s="20"/>
       <c r="H159" s="20" t="b">
@@ -9133,16 +9133,16 @@
         <v>26</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D160" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E160" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F160" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G160" s="20"/>
       <c r="H160" s="20">
@@ -9156,16 +9156,16 @@
         <v>26</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E161" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F161" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G161" s="20"/>
       <c r="H161" s="20">
@@ -9179,16 +9179,16 @@
         <v>26</v>
       </c>
       <c r="C162" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D162" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D162" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E162" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F162" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G162" s="20"/>
       <c r="H162" s="20">
@@ -9202,16 +9202,16 @@
         <v>26</v>
       </c>
       <c r="C163" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D163" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D163" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E163" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F163" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G163" s="20"/>
       <c r="H163" s="20" t="b">
@@ -9225,16 +9225,16 @@
         <v>26</v>
       </c>
       <c r="C164" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D164" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D164" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E164" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F164" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G164" s="20"/>
       <c r="H164" s="20">
@@ -9248,16 +9248,16 @@
         <v>26</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E165" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F165" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G165" s="20"/>
       <c r="H165" s="20">
@@ -9271,16 +9271,16 @@
         <v>26</v>
       </c>
       <c r="C166" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D166" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D166" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E166" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F166" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G166" s="20"/>
       <c r="H166" s="20">
@@ -9293,13 +9293,13 @@
         <v>0</v>
       </c>
       <c r="B167" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C167" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C167" s="20" t="s">
-        <v>265</v>
-      </c>
       <c r="D167" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="20"/>
@@ -9313,23 +9313,23 @@
         <v>26</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E168" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F168" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G168" s="20"/>
       <c r="H168" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="I168" s="20" t="s">
         <v>435</v>
-      </c>
-      <c r="I168" s="20" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15">
@@ -9338,16 +9338,16 @@
         <v>26</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E169" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F169" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G169" s="20"/>
       <c r="H169" s="20">
@@ -9361,16 +9361,16 @@
         <v>26</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E170" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F170" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G170" s="20"/>
       <c r="H170" s="20" t="b">
@@ -9384,16 +9384,16 @@
         <v>26</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E171" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F171" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G171" s="20"/>
       <c r="H171" s="20">
@@ -9407,16 +9407,16 @@
         <v>26</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D172" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E172" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F172" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G172" s="20"/>
       <c r="H172" s="20">
@@ -9430,16 +9430,16 @@
         <v>26</v>
       </c>
       <c r="C173" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D173" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D173" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E173" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F173" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G173" s="20"/>
       <c r="H173" s="20">
@@ -9453,16 +9453,16 @@
         <v>26</v>
       </c>
       <c r="C174" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D174" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D174" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E174" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F174" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G174" s="20"/>
       <c r="H174" s="20" t="b">
@@ -9476,16 +9476,16 @@
         <v>26</v>
       </c>
       <c r="C175" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D175" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D175" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E175" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F175" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G175" s="20"/>
       <c r="H175" s="20">
@@ -9499,16 +9499,16 @@
         <v>26</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E176" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F176" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G176" s="20"/>
       <c r="H176" s="20">
@@ -9522,16 +9522,16 @@
         <v>26</v>
       </c>
       <c r="C177" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D177" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D177" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E177" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F177" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G177" s="20"/>
       <c r="H177" s="20">
@@ -9544,13 +9544,13 @@
         <v>0</v>
       </c>
       <c r="B178" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C178" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="C178" s="20" t="s">
-        <v>270</v>
-      </c>
       <c r="D178" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
@@ -9564,16 +9564,16 @@
         <v>26</v>
       </c>
       <c r="C179" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D179" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D179" s="20" t="s">
-        <v>272</v>
-      </c>
       <c r="E179" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F179" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G179" s="20"/>
       <c r="H179" s="20">
@@ -9587,16 +9587,16 @@
         <v>26</v>
       </c>
       <c r="C180" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D180" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="D180" s="20" t="s">
-        <v>274</v>
-      </c>
       <c r="E180" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F180" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G180" s="20"/>
       <c r="H180" s="20">
@@ -9610,16 +9610,16 @@
         <v>26</v>
       </c>
       <c r="C181" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D181" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="D181" s="20" t="s">
-        <v>276</v>
-      </c>
       <c r="E181" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F181" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G181" s="20"/>
       <c r="H181" s="20">
@@ -9633,16 +9633,16 @@
         <v>26</v>
       </c>
       <c r="C182" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D182" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="D182" s="20" t="s">
-        <v>278</v>
-      </c>
       <c r="E182" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F182" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G182" s="20"/>
       <c r="H182" s="20">
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="B183" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C183" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="C183" s="20" t="s">
-        <v>280</v>
-      </c>
       <c r="D183" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
@@ -9675,16 +9675,16 @@
         <v>26</v>
       </c>
       <c r="C184" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D184" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D184" s="20" t="s">
-        <v>272</v>
-      </c>
       <c r="E184" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F184" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G184" s="20"/>
       <c r="H184" s="20">
@@ -9698,16 +9698,16 @@
         <v>26</v>
       </c>
       <c r="C185" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D185" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="D185" s="20" t="s">
-        <v>274</v>
-      </c>
       <c r="E185" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F185" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G185" s="20"/>
       <c r="H185" s="20">
@@ -9721,16 +9721,16 @@
         <v>26</v>
       </c>
       <c r="C186" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D186" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="D186" s="20" t="s">
-        <v>276</v>
-      </c>
       <c r="E186" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F186" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G186" s="20"/>
       <c r="H186" s="20">
@@ -9744,16 +9744,16 @@
         <v>26</v>
       </c>
       <c r="C187" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D187" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="D187" s="20" t="s">
-        <v>278</v>
-      </c>
       <c r="E187" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F187" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G187" s="20"/>
       <c r="H187" s="20">
@@ -9766,13 +9766,13 @@
         <v>0</v>
       </c>
       <c r="B188" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C188" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="C188" s="20" t="s">
-        <v>282</v>
-      </c>
       <c r="D188" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
@@ -9786,16 +9786,16 @@
         <v>26</v>
       </c>
       <c r="C189" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D189" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="D189" s="20" t="s">
-        <v>284</v>
-      </c>
       <c r="E189" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F189" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G189" s="20"/>
       <c r="H189" s="20"/>
@@ -9807,16 +9807,16 @@
         <v>26</v>
       </c>
       <c r="C190" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D190" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="D190" s="20" t="s">
-        <v>286</v>
-      </c>
       <c r="E190" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F190" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G190" s="20"/>
       <c r="H190" s="20" t="b">
@@ -9829,13 +9829,13 @@
         <v>0</v>
       </c>
       <c r="B191" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C191" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="C191" s="20" t="s">
-        <v>288</v>
-      </c>
       <c r="D191" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
@@ -9849,16 +9849,16 @@
         <v>26</v>
       </c>
       <c r="C192" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D192" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="D192" s="20" t="s">
-        <v>290</v>
-      </c>
       <c r="E192" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F192" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G192" s="20"/>
       <c r="H192" s="20" t="b">
@@ -9872,23 +9872,23 @@
         <v>26</v>
       </c>
       <c r="C193" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D193" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="D193" s="20" t="s">
-        <v>292</v>
-      </c>
       <c r="E193" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F193" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G193" s="20"/>
       <c r="H193" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="I193" s="20" t="s">
         <v>437</v>
-      </c>
-      <c r="I193" s="20" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15">
@@ -9897,16 +9897,16 @@
         <v>26</v>
       </c>
       <c r="C194" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D194" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="D194" s="20" t="s">
-        <v>294</v>
-      </c>
       <c r="E194" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F194" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G194" s="20"/>
       <c r="H194" s="20"/>
@@ -9918,23 +9918,23 @@
         <v>26</v>
       </c>
       <c r="C195" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="D195" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="D195" s="20" t="s">
-        <v>296</v>
-      </c>
       <c r="E195" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F195" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G195" s="20"/>
       <c r="H195" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="I195" s="20" t="s">
         <v>439</v>
-      </c>
-      <c r="I195" s="20" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15">
@@ -9943,23 +9943,23 @@
         <v>26</v>
       </c>
       <c r="C196" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="D196" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="D196" s="20" t="s">
-        <v>298</v>
-      </c>
       <c r="E196" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F196" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G196" s="20"/>
       <c r="H196" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="I196" s="20" t="s">
         <v>441</v>
-      </c>
-      <c r="I196" s="20" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15">
@@ -9967,13 +9967,13 @@
         <v>0</v>
       </c>
       <c r="B197" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C197" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="C197" s="20" t="s">
-        <v>300</v>
-      </c>
       <c r="D197" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -9987,23 +9987,23 @@
         <v>26</v>
       </c>
       <c r="C198" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D198" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D198" s="20" t="s">
-        <v>57</v>
-      </c>
       <c r="E198" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F198" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G198" s="20"/>
       <c r="H198" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I198" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15">
@@ -10012,16 +10012,16 @@
         <v>26</v>
       </c>
       <c r="C199" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D199" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D199" s="20" t="s">
-        <v>302</v>
-      </c>
       <c r="E199" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F199" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G199" s="20"/>
       <c r="H199" s="20">
@@ -10035,16 +10035,16 @@
         <v>26</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E200" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F200" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G200" s="20"/>
       <c r="H200" s="20">
@@ -10058,16 +10058,16 @@
         <v>26</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E201" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F201" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G201" s="20"/>
       <c r="H201" s="20">
@@ -10081,16 +10081,16 @@
         <v>26</v>
       </c>
       <c r="C202" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D202" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D202" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E202" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F202" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G202" s="20"/>
       <c r="H202" s="20">
@@ -10104,16 +10104,16 @@
         <v>26</v>
       </c>
       <c r="C203" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D203" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D203" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E203" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F203" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G203" s="20"/>
       <c r="H203" s="20" t="b">
@@ -10127,16 +10127,16 @@
         <v>26</v>
       </c>
       <c r="C204" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D204" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D204" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E204" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F204" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G204" s="20"/>
       <c r="H204" s="20">
@@ -10150,16 +10150,16 @@
         <v>26</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E205" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F205" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G205" s="20"/>
       <c r="H205" s="20">
@@ -10173,16 +10173,16 @@
         <v>26</v>
       </c>
       <c r="C206" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D206" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D206" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E206" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F206" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G206" s="20"/>
       <c r="H206" s="20">
@@ -10195,13 +10195,13 @@
         <v>0</v>
       </c>
       <c r="B207" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C207" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D207" s="20" t="s">
         <v>79</v>
-      </c>
-      <c r="C207" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D207" s="20" t="s">
-        <v>80</v>
       </c>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
@@ -10215,23 +10215,23 @@
         <v>26</v>
       </c>
       <c r="C208" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D208" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D208" s="20" t="s">
-        <v>57</v>
-      </c>
       <c r="E208" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F208" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G208" s="20"/>
       <c r="H208" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I208" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15">
@@ -10240,16 +10240,16 @@
         <v>26</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D209" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E209" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F209" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G209" s="20"/>
       <c r="H209" s="20">
@@ -10263,16 +10263,16 @@
         <v>26</v>
       </c>
       <c r="C210" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D210" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D210" s="20" t="s">
-        <v>60</v>
-      </c>
       <c r="E210" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F210" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G210" s="20"/>
       <c r="H210" s="20">
@@ -10286,16 +10286,16 @@
         <v>26</v>
       </c>
       <c r="C211" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D211" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D211" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E211" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F211" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G211" s="20"/>
       <c r="H211" s="20">
@@ -10309,16 +10309,16 @@
         <v>26</v>
       </c>
       <c r="C212" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D212" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D212" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E212" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F212" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G212" s="20"/>
       <c r="H212" s="20">
@@ -10332,16 +10332,16 @@
         <v>26</v>
       </c>
       <c r="C213" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D213" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D213" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E213" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F213" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G213" s="20"/>
       <c r="H213" s="20" t="b">
@@ -10355,16 +10355,16 @@
         <v>26</v>
       </c>
       <c r="C214" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D214" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D214" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E214" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F214" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G214" s="20"/>
       <c r="H214" s="20">
@@ -10378,16 +10378,16 @@
         <v>26</v>
       </c>
       <c r="C215" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D215" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E215" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F215" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G215" s="20"/>
       <c r="H215" s="20">
@@ -10401,16 +10401,16 @@
         <v>26</v>
       </c>
       <c r="C216" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D216" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D216" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E216" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F216" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G216" s="20"/>
       <c r="H216" s="20">
@@ -10423,13 +10423,13 @@
         <v>0</v>
       </c>
       <c r="B217" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C217" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="C217" s="20" t="s">
-        <v>308</v>
-      </c>
       <c r="D217" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
@@ -10443,16 +10443,16 @@
         <v>26</v>
       </c>
       <c r="C218" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="D218" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="D218" s="20" t="s">
-        <v>310</v>
-      </c>
       <c r="E218" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F218" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G218" s="20"/>
       <c r="H218" s="20"/>
@@ -10464,16 +10464,16 @@
         <v>26</v>
       </c>
       <c r="C219" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="D219" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="D219" s="20" t="s">
-        <v>312</v>
-      </c>
       <c r="E219" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F219" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G219" s="20"/>
       <c r="H219" s="20">
@@ -10487,16 +10487,16 @@
         <v>26</v>
       </c>
       <c r="C220" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D220" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="D220" s="20" t="s">
-        <v>314</v>
-      </c>
       <c r="E220" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F220" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G220" s="20"/>
       <c r="H220" s="20" t="b">
@@ -10510,16 +10510,16 @@
         <v>26</v>
       </c>
       <c r="C221" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="D221" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="D221" s="20" t="s">
-        <v>316</v>
-      </c>
       <c r="E221" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F221" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G221" s="20"/>
       <c r="H221" s="20">
@@ -10533,16 +10533,16 @@
         <v>26</v>
       </c>
       <c r="C222" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="D222" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="D222" s="20" t="s">
-        <v>318</v>
-      </c>
       <c r="E222" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F222" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G222" s="20"/>
       <c r="H222" s="20">
@@ -10556,16 +10556,16 @@
         <v>26</v>
       </c>
       <c r="C223" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D223" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="D223" s="20" t="s">
-        <v>320</v>
-      </c>
       <c r="E223" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F223" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G223" s="20"/>
       <c r="H223" s="20" t="b">
@@ -10579,16 +10579,16 @@
         <v>26</v>
       </c>
       <c r="C224" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D224" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="D224" s="20" t="s">
-        <v>322</v>
-      </c>
       <c r="E224" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F224" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G224" s="20"/>
       <c r="H224" s="20">
@@ -10602,16 +10602,16 @@
         <v>26</v>
       </c>
       <c r="C225" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D225" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="D225" s="20" t="s">
-        <v>324</v>
-      </c>
       <c r="E225" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F225" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G225" s="20"/>
       <c r="H225" s="20">
@@ -10625,16 +10625,16 @@
         <v>26</v>
       </c>
       <c r="C226" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D226" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="D226" s="20" t="s">
-        <v>326</v>
-      </c>
       <c r="E226" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F226" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G226" s="20"/>
       <c r="H226" s="20" t="b">
@@ -10648,16 +10648,16 @@
         <v>26</v>
       </c>
       <c r="C227" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D227" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="D227" s="20" t="s">
-        <v>328</v>
-      </c>
       <c r="E227" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F227" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G227" s="20"/>
       <c r="H227" s="20">
@@ -10671,16 +10671,16 @@
         <v>26</v>
       </c>
       <c r="C228" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D228" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="D228" s="20" t="s">
-        <v>330</v>
-      </c>
       <c r="E228" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F228" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G228" s="20"/>
       <c r="H228" s="20">
@@ -10694,16 +10694,16 @@
         <v>26</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D229" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E229" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F229" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G229" s="20"/>
       <c r="H229" s="20">
@@ -10717,16 +10717,16 @@
         <v>26</v>
       </c>
       <c r="C230" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D230" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D230" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E230" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F230" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G230" s="20"/>
       <c r="H230" s="20">
@@ -10740,16 +10740,16 @@
         <v>26</v>
       </c>
       <c r="C231" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D231" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D231" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E231" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F231" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G231" s="20"/>
       <c r="H231" s="20">
@@ -10763,16 +10763,16 @@
         <v>26</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D232" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E232" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F232" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G232" s="20"/>
       <c r="H232" s="20">
@@ -10786,16 +10786,16 @@
         <v>26</v>
       </c>
       <c r="C233" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D233" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D233" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E233" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F233" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G233" s="20"/>
       <c r="H233" s="20">
@@ -10808,13 +10808,13 @@
         <v>0</v>
       </c>
       <c r="B234" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C234" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="C234" s="20" t="s">
-        <v>334</v>
-      </c>
       <c r="D234" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -10828,16 +10828,16 @@
         <v>26</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D235" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E235" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F235" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G235" s="20"/>
       <c r="H235" s="20"/>
@@ -10849,16 +10849,16 @@
         <v>26</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D236" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E236" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F236" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G236" s="20"/>
       <c r="H236" s="20">
@@ -10872,16 +10872,16 @@
         <v>26</v>
       </c>
       <c r="C237" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D237" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="D237" s="20" t="s">
-        <v>314</v>
-      </c>
       <c r="E237" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F237" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G237" s="20"/>
       <c r="H237" s="20" t="b">
@@ -10895,16 +10895,16 @@
         <v>26</v>
       </c>
       <c r="C238" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="D238" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="D238" s="20" t="s">
-        <v>316</v>
-      </c>
       <c r="E238" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F238" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G238" s="20"/>
       <c r="H238" s="20">
@@ -10918,16 +10918,16 @@
         <v>26</v>
       </c>
       <c r="C239" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="D239" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="D239" s="20" t="s">
-        <v>318</v>
-      </c>
       <c r="E239" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F239" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G239" s="20"/>
       <c r="H239" s="20">
@@ -10941,16 +10941,16 @@
         <v>26</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E240" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F240" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G240" s="20"/>
       <c r="H240" s="20" t="b">
@@ -10964,16 +10964,16 @@
         <v>26</v>
       </c>
       <c r="C241" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D241" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="D241" s="20" t="s">
-        <v>322</v>
-      </c>
       <c r="E241" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F241" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G241" s="20"/>
       <c r="H241" s="20">
@@ -10987,16 +10987,16 @@
         <v>26</v>
       </c>
       <c r="C242" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D242" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="D242" s="20" t="s">
-        <v>324</v>
-      </c>
       <c r="E242" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F242" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G242" s="20"/>
       <c r="H242" s="20">
@@ -11010,16 +11010,16 @@
         <v>26</v>
       </c>
       <c r="C243" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D243" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="D243" s="20" t="s">
-        <v>326</v>
-      </c>
       <c r="E243" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F243" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G243" s="20"/>
       <c r="H243" s="20" t="b">
@@ -11033,16 +11033,16 @@
         <v>26</v>
       </c>
       <c r="C244" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D244" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="D244" s="20" t="s">
-        <v>328</v>
-      </c>
       <c r="E244" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F244" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G244" s="20"/>
       <c r="H244" s="20">
@@ -11056,16 +11056,16 @@
         <v>26</v>
       </c>
       <c r="C245" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D245" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="D245" s="20" t="s">
-        <v>330</v>
-      </c>
       <c r="E245" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F245" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G245" s="20"/>
       <c r="H245" s="20">
@@ -11079,16 +11079,16 @@
         <v>26</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E246" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F246" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G246" s="20"/>
       <c r="H246" s="20">
@@ -11102,16 +11102,16 @@
         <v>26</v>
       </c>
       <c r="C247" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D247" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D247" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E247" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F247" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G247" s="20"/>
       <c r="H247" s="20">
@@ -11125,16 +11125,16 @@
         <v>26</v>
       </c>
       <c r="C248" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D248" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D248" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E248" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F248" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G248" s="20"/>
       <c r="H248" s="20">
@@ -11148,16 +11148,16 @@
         <v>26</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E249" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F249" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G249" s="20"/>
       <c r="H249" s="20">
@@ -11171,16 +11171,16 @@
         <v>26</v>
       </c>
       <c r="C250" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D250" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D250" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E250" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F250" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G250" s="20"/>
       <c r="H250" s="20">
@@ -11193,13 +11193,13 @@
         <v>0</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -11213,23 +11213,23 @@
         <v>26</v>
       </c>
       <c r="C252" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D252" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D252" s="20" t="s">
-        <v>57</v>
-      </c>
       <c r="E252" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F252" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G252" s="20"/>
       <c r="H252" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I252" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="15">
@@ -11238,16 +11238,16 @@
         <v>26</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E253" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F253" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G253" s="20"/>
       <c r="H253" s="20">
@@ -11261,16 +11261,16 @@
         <v>26</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E254" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F254" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G254" s="20"/>
       <c r="H254" s="20">
@@ -11284,16 +11284,16 @@
         <v>26</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E255" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F255" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G255" s="20"/>
       <c r="H255" s="20">
@@ -11307,16 +11307,16 @@
         <v>26</v>
       </c>
       <c r="C256" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D256" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D256" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E256" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F256" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G256" s="20"/>
       <c r="H256" s="20">
@@ -11329,13 +11329,13 @@
         <v>0</v>
       </c>
       <c r="B257" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="C257" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="C257" s="20" t="s">
-        <v>342</v>
-      </c>
       <c r="D257" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -11349,23 +11349,23 @@
         <v>26</v>
       </c>
       <c r="C258" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D258" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D258" s="20" t="s">
-        <v>57</v>
-      </c>
       <c r="E258" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F258" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G258" s="20"/>
       <c r="H258" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I258" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15">
@@ -11374,16 +11374,16 @@
         <v>26</v>
       </c>
       <c r="C259" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D259" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="D259" s="20" t="s">
-        <v>344</v>
-      </c>
       <c r="E259" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F259" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G259" s="20"/>
       <c r="H259" s="20">
@@ -11396,13 +11396,13 @@
         <v>0</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -11415,13 +11415,13 @@
         <v>0</v>
       </c>
       <c r="B261" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="C261" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="C261" s="20" t="s">
-        <v>347</v>
-      </c>
       <c r="D261" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -11434,13 +11434,13 @@
         <v>0</v>
       </c>
       <c r="B262" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="C262" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="C262" s="20" t="s">
-        <v>349</v>
-      </c>
       <c r="D262" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -11454,16 +11454,16 @@
         <v>26</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D263" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E263" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F263" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G263" s="20"/>
       <c r="H263" s="20"/>
@@ -11475,16 +11475,16 @@
         <v>26</v>
       </c>
       <c r="C264" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D264" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="D264" s="20" t="s">
-        <v>352</v>
-      </c>
       <c r="E264" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F264" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G264" s="20"/>
       <c r="H264" s="20" t="b">
@@ -11498,16 +11498,16 @@
         <v>26</v>
       </c>
       <c r="C265" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="D265" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="D265" s="20" t="s">
-        <v>354</v>
-      </c>
       <c r="E265" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F265" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G265" s="20"/>
       <c r="H265" s="20" t="b">
@@ -11521,16 +11521,16 @@
         <v>26</v>
       </c>
       <c r="C266" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D266" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D266" s="20" t="s">
-        <v>105</v>
-      </c>
       <c r="E266" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F266" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G266" s="20"/>
       <c r="H266" s="20" t="b">
@@ -11544,16 +11544,16 @@
         <v>26</v>
       </c>
       <c r="C267" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D267" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D267" s="20" t="s">
-        <v>107</v>
-      </c>
       <c r="E267" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F267" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G267" s="20"/>
       <c r="H267" s="20">
@@ -11567,16 +11567,16 @@
         <v>26</v>
       </c>
       <c r="C268" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D268" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D268" s="20" t="s">
-        <v>109</v>
-      </c>
       <c r="E268" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F268" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G268" s="20"/>
       <c r="H268" s="20">
@@ -11590,16 +11590,16 @@
         <v>26</v>
       </c>
       <c r="C269" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D269" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D269" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E269" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F269" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G269" s="20"/>
       <c r="H269" s="20">
@@ -11613,16 +11613,16 @@
         <v>26</v>
       </c>
       <c r="C270" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D270" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D270" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E270" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F270" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G270" s="20"/>
       <c r="H270" s="20" t="b">
@@ -11636,16 +11636,16 @@
         <v>26</v>
       </c>
       <c r="C271" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D271" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D271" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E271" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F271" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G271" s="20"/>
       <c r="H271" s="20">
@@ -11659,16 +11659,16 @@
         <v>26</v>
       </c>
       <c r="C272" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D272" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D272" s="20" t="s">
-        <v>111</v>
-      </c>
       <c r="E272" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F272" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G272" s="20"/>
       <c r="H272" s="20">
@@ -11682,16 +11682,16 @@
         <v>26</v>
       </c>
       <c r="C273" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D273" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D273" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E273" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F273" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G273" s="20"/>
       <c r="H273" s="20">
@@ -11704,13 +11704,13 @@
         <v>0</v>
       </c>
       <c r="B274" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C274" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C274" s="20" t="s">
-        <v>86</v>
-      </c>
       <c r="D274" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -11724,16 +11724,16 @@
         <v>26</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E275" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F275" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G275" s="20"/>
       <c r="H275" s="20">
@@ -11746,13 +11746,13 @@
         <v>0</v>
       </c>
       <c r="B276" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C276" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="C276" s="20" t="s">
-        <v>357</v>
-      </c>
       <c r="D276" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -11766,23 +11766,23 @@
         <v>26</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E277" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F277" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G277" s="20"/>
       <c r="H277" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="I277" s="20" t="s">
         <v>431</v>
-      </c>
-      <c r="I277" s="20" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="15">
@@ -11791,16 +11791,16 @@
         <v>26</v>
       </c>
       <c r="C278" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="D278" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="D278" s="20" t="s">
-        <v>360</v>
-      </c>
       <c r="E278" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F278" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G278" s="20"/>
       <c r="H278" s="20">
@@ -11814,16 +11814,16 @@
         <v>26</v>
       </c>
       <c r="C279" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="D279" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="D279" s="20" t="s">
-        <v>362</v>
-      </c>
       <c r="E279" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F279" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G279" s="20"/>
       <c r="H279" s="20">
@@ -11837,16 +11837,16 @@
         <v>26</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D280" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E280" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F280" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G280" s="20"/>
       <c r="H280" s="20" t="b">
@@ -11860,16 +11860,16 @@
         <v>26</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D281" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E281" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F281" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G281" s="20"/>
       <c r="H281" s="20">
@@ -11883,16 +11883,16 @@
         <v>26</v>
       </c>
       <c r="C282" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D282" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E282" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F282" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G282" s="20"/>
       <c r="H282" s="20">
@@ -11906,16 +11906,16 @@
         <v>26</v>
       </c>
       <c r="C283" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D283" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D283" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E283" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F283" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G283" s="20"/>
       <c r="H283" s="20">
@@ -11929,16 +11929,16 @@
         <v>26</v>
       </c>
       <c r="C284" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D284" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D284" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E284" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F284" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G284" s="20"/>
       <c r="H284" s="20" t="b">
@@ -11952,16 +11952,16 @@
         <v>26</v>
       </c>
       <c r="C285" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D285" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D285" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E285" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F285" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G285" s="20"/>
       <c r="H285" s="20">
@@ -11975,16 +11975,16 @@
         <v>26</v>
       </c>
       <c r="C286" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D286" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E286" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F286" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G286" s="20"/>
       <c r="H286" s="20">
@@ -11998,16 +11998,16 @@
         <v>26</v>
       </c>
       <c r="C287" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D287" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D287" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E287" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F287" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G287" s="20"/>
       <c r="H287" s="20">
@@ -12020,13 +12020,13 @@
         <v>0</v>
       </c>
       <c r="B288" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C288" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="C288" s="20" t="s">
-        <v>368</v>
-      </c>
       <c r="D288" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -12040,16 +12040,16 @@
         <v>26</v>
       </c>
       <c r="C289" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="D289" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="D289" s="20" t="s">
-        <v>370</v>
-      </c>
       <c r="E289" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F289" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G289" s="20"/>
       <c r="H289" s="20">
@@ -12062,13 +12062,13 @@
         <v>0</v>
       </c>
       <c r="B290" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="C290" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="C290" s="20" t="s">
-        <v>372</v>
-      </c>
       <c r="D290" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -12082,16 +12082,16 @@
         <v>26</v>
       </c>
       <c r="C291" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="D291" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="D291" s="20" t="s">
-        <v>374</v>
-      </c>
       <c r="E291" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F291" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G291" s="20"/>
       <c r="H291" s="20"/>
@@ -12102,13 +12102,13 @@
         <v>0</v>
       </c>
       <c r="B292" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="C292" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="C292" s="20" t="s">
-        <v>376</v>
-      </c>
       <c r="D292" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -12122,16 +12122,16 @@
         <v>26</v>
       </c>
       <c r="C293" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D293" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E293" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F293" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G293" s="20"/>
       <c r="H293" s="20"/>
@@ -12142,13 +12142,13 @@
         <v>0</v>
       </c>
       <c r="B294" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="C294" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="C294" s="20" t="s">
-        <v>379</v>
-      </c>
       <c r="D294" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -12162,16 +12162,16 @@
         <v>26</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D295" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E295" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F295" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G295" s="20"/>
       <c r="H295" s="20"/>
@@ -12182,13 +12182,13 @@
         <v>0</v>
       </c>
       <c r="B296" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C296" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="C296" s="20" t="s">
-        <v>382</v>
-      </c>
       <c r="D296" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -12202,16 +12202,16 @@
         <v>26</v>
       </c>
       <c r="C297" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D297" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="D297" s="20" t="s">
-        <v>384</v>
-      </c>
       <c r="E297" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F297" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G297" s="20"/>
       <c r="H297" s="20">
@@ -12224,13 +12224,13 @@
         <v>0</v>
       </c>
       <c r="B298" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C298" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="C298" s="20" t="s">
-        <v>386</v>
-      </c>
       <c r="D298" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -12244,23 +12244,23 @@
         <v>26</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D299" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E299" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F299" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G299" s="20"/>
       <c r="H299" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I299" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="15">
@@ -12269,16 +12269,16 @@
         <v>26</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D300" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E300" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F300" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G300" s="20"/>
       <c r="H300" s="20">
@@ -12292,16 +12292,16 @@
         <v>26</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D301" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E301" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F301" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G301" s="20"/>
       <c r="H301" s="20">
@@ -12315,16 +12315,16 @@
         <v>26</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D302" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E302" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F302" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G302" s="20"/>
       <c r="H302" s="20">
@@ -12338,16 +12338,16 @@
         <v>26</v>
       </c>
       <c r="C303" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D303" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D303" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E303" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F303" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G303" s="20"/>
       <c r="H303" s="20">
@@ -12361,16 +12361,16 @@
         <v>26</v>
       </c>
       <c r="C304" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D304" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D304" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E304" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F304" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G304" s="20"/>
       <c r="H304" s="20" t="b">
@@ -12384,16 +12384,16 @@
         <v>26</v>
       </c>
       <c r="C305" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D305" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D305" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E305" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F305" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G305" s="20"/>
       <c r="H305" s="20">
@@ -12407,16 +12407,16 @@
         <v>26</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D306" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E306" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F306" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G306" s="20"/>
       <c r="H306" s="20">
@@ -12430,16 +12430,16 @@
         <v>26</v>
       </c>
       <c r="C307" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D307" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D307" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E307" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F307" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G307" s="20"/>
       <c r="H307" s="20">
@@ -12452,13 +12452,13 @@
         <v>0</v>
       </c>
       <c r="B308" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="C308" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="C308" s="20" t="s">
-        <v>393</v>
-      </c>
       <c r="D308" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -12472,16 +12472,16 @@
         <v>26</v>
       </c>
       <c r="C309" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="D309" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="D309" s="20" t="s">
-        <v>395</v>
-      </c>
       <c r="E309" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F309" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G309" s="20"/>
       <c r="H309" s="20">
@@ -12495,16 +12495,16 @@
         <v>26</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D310" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E310" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F310" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G310" s="20"/>
       <c r="H310" s="20">
@@ -12518,16 +12518,16 @@
         <v>26</v>
       </c>
       <c r="C311" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D311" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D311" s="20" t="s">
-        <v>111</v>
-      </c>
       <c r="E311" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F311" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G311" s="20"/>
       <c r="H311" s="20">
@@ -12541,16 +12541,16 @@
         <v>26</v>
       </c>
       <c r="C312" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D312" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D312" s="20" t="s">
-        <v>72</v>
-      </c>
       <c r="E312" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F312" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G312" s="20"/>
       <c r="H312" s="20">
@@ -12563,13 +12563,13 @@
         <v>0</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C313" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D313" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -12583,16 +12583,16 @@
         <v>26</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D314" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E314" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F314" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G314" s="20"/>
       <c r="H314" s="20">
@@ -12606,16 +12606,16 @@
         <v>26</v>
       </c>
       <c r="C315" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D315" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D315" s="20" t="s">
-        <v>91</v>
-      </c>
       <c r="E315" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F315" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G315" s="20"/>
       <c r="H315" s="20">
@@ -12629,23 +12629,23 @@
         <v>26</v>
       </c>
       <c r="C316" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D316" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D316" s="20" t="s">
-        <v>93</v>
-      </c>
       <c r="E316" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F316" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G316" s="20"/>
       <c r="H316" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I316" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="15">
@@ -12653,13 +12653,13 @@
         <v>0</v>
       </c>
       <c r="B317" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="C317" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="C317" s="20" t="s">
-        <v>400</v>
-      </c>
       <c r="D317" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -12673,23 +12673,23 @@
         <v>26</v>
       </c>
       <c r="C318" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="D318" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="D318" s="20" t="s">
-        <v>402</v>
-      </c>
       <c r="E318" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F318" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G318" s="20"/>
       <c r="H318" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="I318" s="20" t="s">
         <v>443</v>
-      </c>
-      <c r="I318" s="20" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="15">
@@ -12698,16 +12698,16 @@
         <v>26</v>
       </c>
       <c r="C319" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="D319" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="D319" s="20" t="s">
-        <v>404</v>
-      </c>
       <c r="E319" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F319" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G319" s="20"/>
       <c r="H319" s="20">
@@ -12720,13 +12720,13 @@
         <v>0</v>
       </c>
       <c r="B320" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="C320" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="C320" s="20" t="s">
-        <v>406</v>
-      </c>
       <c r="D320" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -12740,16 +12740,16 @@
         <v>26</v>
       </c>
       <c r="C321" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D321" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="D321" s="20" t="s">
-        <v>408</v>
-      </c>
       <c r="E321" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F321" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G321" s="20"/>
       <c r="H321" s="20"/>
@@ -12761,16 +12761,16 @@
         <v>26</v>
       </c>
       <c r="C322" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D322" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="D322" s="20" t="s">
-        <v>410</v>
-      </c>
       <c r="E322" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F322" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G322" s="20"/>
       <c r="H322" s="20"/>
@@ -12782,16 +12782,16 @@
         <v>26</v>
       </c>
       <c r="C323" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D323" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E323" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F323" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G323" s="20"/>
       <c r="H323" s="20" t="b">
@@ -12804,13 +12804,13 @@
         <v>0</v>
       </c>
       <c r="B324" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C324" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="C324" s="20" t="s">
-        <v>412</v>
-      </c>
       <c r="D324" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -12823,13 +12823,13 @@
         <v>0</v>
       </c>
       <c r="B325" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="C325" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="C325" s="20" t="s">
-        <v>414</v>
-      </c>
       <c r="D325" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -12843,23 +12843,23 @@
         <v>26</v>
       </c>
       <c r="C326" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="D326" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="D326" s="20" t="s">
-        <v>416</v>
-      </c>
       <c r="E326" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F326" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G326" s="20"/>
       <c r="H326" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="I326" s="20" t="s">
         <v>445</v>
-      </c>
-      <c r="I326" s="20" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="15">
@@ -12868,23 +12868,23 @@
         <v>26</v>
       </c>
       <c r="C327" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="D327" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="D327" s="20" t="s">
-        <v>418</v>
-      </c>
       <c r="E327" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F327" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G327" s="20"/>
       <c r="H327" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="I327" s="20" t="s">
         <v>447</v>
-      </c>
-      <c r="I327" s="20" t="s">
-        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/spec/files/small_list.xlsx
+++ b/spec/files/small_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18020" yWindow="3240" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="6320" yWindow="2060" windowWidth="25040" windowHeight="15500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -12,6 +12,9 @@
     <sheet name="Variables" sheetId="2" r:id="rId3"/>
     <sheet name="BCL Measure Data" sheetId="10" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$13</definedName>
   </definedNames>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="470">
   <si>
     <t>type</t>
   </si>
@@ -99,12 +102,6 @@
     <t>Sample Method</t>
   </si>
   <si>
-    <t>LHS</t>
-  </si>
-  <si>
-    <t>Sensitivity Method</t>
-  </si>
-  <si>
     <t>argument</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>Inputs</t>
   </si>
   <si>
-    <t>All Measures</t>
-  </si>
-  <si>
     <t>OSM</t>
   </si>
   <si>
@@ -1371,9 +1365,6 @@
     <t>|Residential Gas,Small CG,Large CG,Interruptible Industrial G,Non-Xcel Gas Firm,Non-Xcel Gas Interruptible|</t>
   </si>
   <si>
-    <t>Test Run 1</t>
-  </si>
-  <si>
     <t>../../spec/files/measures</t>
   </si>
   <si>
@@ -1393,6 +1384,60 @@
   </si>
   <si>
     <t>../../spec/files/export/analysis</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Spreadsheet Version</t>
+  </si>
+  <si>
+    <t>0.1.9</t>
+  </si>
+  <si>
+    <t>Do NOT change this unless advised</t>
+  </si>
+  <si>
+    <t>Server Instance Type</t>
+  </si>
+  <si>
+    <t>m2.xlarge</t>
+  </si>
+  <si>
+    <t>Use a minimum of 2 cores for server</t>
+  </si>
+  <si>
+    <t>Worker Instance Type</t>
+  </si>
+  <si>
+    <t>Depends on how many simuations. If you are testing, then you can select a smaller instance.</t>
+  </si>
+  <si>
+    <t>Example Analysis</t>
+  </si>
+  <si>
+    <t>This will be the name that is displayed on the server instance and used to identify the cluster.</t>
+  </si>
+  <si>
+    <t>Place any Problem Specific entries here.  The names will be downcased and underscored automatically, so either enter them as readable or already "snake_cased"</t>
+  </si>
+  <si>
+    <t>Analysis Type</t>
+  </si>
+  <si>
+    <t>Algorithm Setup</t>
+  </si>
+  <si>
+    <t>all_variables</t>
+  </si>
+  <si>
+    <t>Number of Generations</t>
+  </si>
+  <si>
+    <t>If there are more than one seed models, then you will submit the same analysis for each seed model.</t>
+  </si>
+  <si>
+    <t>You can change the identifier (which becomes the file name for the zip and json file) and the seed model location.</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1497,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1483,6 +1528,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2730,7 +2787,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2779,6 +2836,20 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1235">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4027,6 +4098,72 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Instructions"/>
+      <sheetName val="Setup"/>
+      <sheetName val="Variables"/>
+      <sheetName val="BCL Measure Data"/>
+      <sheetName val="Lookups"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>m2.xlarge</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>2 Cores</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>$0.410/hour</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>m2.2xlarge</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>4 Cores</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>$0.820/hour</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>c3.2xlarge</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>8 Cores</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>$1.20/hour</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>cc2.8xlarge</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>16 Cores</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>$2.40/hour</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4327,12 +4464,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4348,149 +4485,268 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="13" customFormat="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="13" customFormat="1">
+      <c r="A2" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B4,[1]Lookups!$A$2:$A$5,0),2)</f>
+        <v>2 Cores</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B4,[1]Lookups!$A$2:$A$5,0),3)</f>
+        <v>$0.410/hour</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28">
+      <c r="A5" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B5,[1]Lookups!$A$2:$A$5,0),2)</f>
+        <v>2 Cores</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B5,[1]Lookups!$A$2:$A$5,0),3)</f>
+        <v>$0.410/hour</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="13" customFormat="1">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A15" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B18" s="26">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="B23" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D24" s="27" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1">
-      <c r="A6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" ht="28">
-      <c r="A11" s="12" t="s">
+      <c r="E24" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1">
-      <c r="A14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="B26" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="28">
-      <c r="A17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="12"/>
+      <c r="C26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Lookups!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Lookups!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -4529,7 +4785,7 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4545,7 +4801,7 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R1" s="21"/>
       <c r="S1" s="21"/>
@@ -4558,7 +4814,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>22</v>
@@ -4574,10 +4830,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>16</v>
@@ -4589,7 +4845,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>12</v>
@@ -4636,13 +4892,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -4658,26 +4914,26 @@
     <row r="5" spans="1:22">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4689,19 +4945,19 @@
     <row r="6" spans="1:22">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G6"/>
       <c r="H6">
@@ -4721,7 +4977,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
@@ -4729,19 +4985,19 @@
     <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G7"/>
       <c r="H7">
@@ -4757,19 +5013,19 @@
     <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G8"/>
       <c r="H8">
@@ -4785,19 +5041,19 @@
     <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G9"/>
       <c r="H9">
@@ -4813,19 +5069,19 @@
     <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="b">
@@ -4841,19 +5097,19 @@
     <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G11"/>
       <c r="H11">
@@ -4869,19 +5125,19 @@
     <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G12"/>
       <c r="H12">
@@ -4897,19 +5153,19 @@
     <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13"/>
       <c r="H13">
@@ -4927,53 +5183,53 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:22" customFormat="1">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:22" customFormat="1">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H16">
         <v>30</v>
@@ -4992,24 +5248,24 @@
         <v>5</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:14" customFormat="1">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -5017,19 +5273,19 @@
     </row>
     <row r="18" spans="1:14" customFormat="1">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -5037,19 +5293,19 @@
     </row>
     <row r="19" spans="1:14" customFormat="1">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -5060,13 +5316,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -5082,19 +5338,19 @@
     <row r="21" spans="1:14" customFormat="1" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20">
@@ -5115,25 +5371,25 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:14" customFormat="1" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20">
@@ -5154,25 +5410,25 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:14" customFormat="1" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20" t="b">
@@ -5185,13 +5441,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -5202,19 +5458,19 @@
     <row r="25" spans="1:14" customFormat="1" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20">
@@ -5235,25 +5491,25 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:14" customFormat="1" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20">
@@ -5264,19 +5520,19 @@
     <row r="27" spans="1:14" customFormat="1" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20">
@@ -5287,19 +5543,19 @@
     <row r="28" spans="1:14" customFormat="1" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20">
@@ -5312,13 +5568,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -5329,19 +5585,19 @@
     <row r="30" spans="1:14" customFormat="1" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20">
@@ -5362,25 +5618,25 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:14" customFormat="1" ht="15">
       <c r="A31" s="20"/>
       <c r="B31" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20">
@@ -5391,19 +5647,19 @@
     <row r="32" spans="1:14" customFormat="1" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20">
@@ -5414,19 +5670,19 @@
     <row r="33" spans="1:14" customFormat="1" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20">
@@ -5439,13 +5695,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -5456,44 +5712,44 @@
     <row r="35" spans="1:14" customFormat="1" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:14" customFormat="1" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20">
@@ -5514,7 +5770,7 @@
         <v>15</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5557,13 +5813,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -5574,19 +5830,19 @@
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -5595,19 +5851,19 @@
     <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="b">
@@ -5618,19 +5874,19 @@
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20">
@@ -5641,19 +5897,19 @@
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20">
@@ -5664,19 +5920,19 @@
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20">
@@ -5687,19 +5943,19 @@
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="b">
@@ -5710,19 +5966,19 @@
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20">
@@ -5733,19 +5989,19 @@
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20">
@@ -5756,19 +6012,19 @@
     <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20">
@@ -5781,13 +6037,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -5798,19 +6054,19 @@
     <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -5819,19 +6075,19 @@
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="b">
@@ -5842,19 +6098,19 @@
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20">
@@ -5865,19 +6121,19 @@
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20">
@@ -5888,19 +6144,19 @@
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20">
@@ -5911,19 +6167,19 @@
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="b">
@@ -5934,19 +6190,19 @@
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20">
@@ -5957,19 +6213,19 @@
     <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20">
@@ -5980,19 +6236,19 @@
     <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20">
@@ -6005,13 +6261,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -6022,19 +6278,19 @@
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20" t="b">
@@ -6045,42 +6301,42 @@
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20">
@@ -6091,19 +6347,19 @@
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20">
@@ -6114,19 +6370,19 @@
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20">
@@ -6137,19 +6393,19 @@
     <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20" t="b">
@@ -6160,19 +6416,19 @@
     <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20">
@@ -6183,19 +6439,19 @@
     <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20">
@@ -6206,19 +6462,19 @@
     <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20">
@@ -6231,13 +6487,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -6248,19 +6504,19 @@
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -6269,19 +6525,19 @@
     <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20" t="b">
@@ -6292,19 +6548,19 @@
     <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20">
@@ -6315,19 +6571,19 @@
     <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20">
@@ -6338,19 +6594,19 @@
     <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20">
@@ -6361,19 +6617,19 @@
     <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20" t="b">
@@ -6384,19 +6640,19 @@
     <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20">
@@ -6407,19 +6663,19 @@
     <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20">
@@ -6430,19 +6686,19 @@
     <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="20">
@@ -6455,13 +6711,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -6472,19 +6728,19 @@
     <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
@@ -6493,19 +6749,19 @@
     <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="20" t="b">
@@ -6516,19 +6772,19 @@
     <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20">
@@ -6539,19 +6795,19 @@
     <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="20">
@@ -6562,19 +6818,19 @@
     <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20">
@@ -6585,19 +6841,19 @@
     <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="20" t="b">
@@ -6608,19 +6864,19 @@
     <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="20">
@@ -6631,19 +6887,19 @@
     <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="20">
@@ -6654,19 +6910,19 @@
     <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="20">
@@ -6679,13 +6935,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -6696,19 +6952,19 @@
     <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -6717,19 +6973,19 @@
     <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="20" t="b">
@@ -6740,19 +6996,19 @@
     <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="20">
@@ -6763,19 +7019,19 @@
     <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="20">
@@ -6786,19 +7042,19 @@
     <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="20">
@@ -6809,19 +7065,19 @@
     <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="20" t="b">
@@ -6832,19 +7088,19 @@
     <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20">
@@ -6855,19 +7111,19 @@
     <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="20">
@@ -6878,19 +7134,19 @@
     <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="20">
@@ -6903,13 +7159,13 @@
         <v>0</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -6920,19 +7176,19 @@
     <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
@@ -6941,44 +7197,44 @@
     <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G63" s="20"/>
       <c r="H63" s="20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="20" t="b">
@@ -6989,19 +7245,19 @@
     <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="20">
@@ -7012,19 +7268,19 @@
     <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="20">
@@ -7035,19 +7291,19 @@
     <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="20">
@@ -7058,19 +7314,19 @@
     <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G68" s="20"/>
       <c r="H68" s="20" t="b">
@@ -7081,19 +7337,19 @@
     <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G69" s="20"/>
       <c r="H69" s="20">
@@ -7104,19 +7360,19 @@
     <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="20">
@@ -7127,19 +7383,19 @@
     <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="20">
@@ -7152,13 +7408,13 @@
         <v>0</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -7169,19 +7425,19 @@
     <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
@@ -7190,19 +7446,19 @@
     <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="20">
@@ -7213,44 +7469,44 @@
     <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E75" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G75" s="20"/>
       <c r="H75" s="20" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I75" s="20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G76" s="20"/>
       <c r="H76" s="20">
@@ -7261,19 +7517,19 @@
     <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G77" s="20"/>
       <c r="H77" s="20">
@@ -7284,19 +7540,19 @@
     <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E78" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G78" s="20"/>
       <c r="H78" s="20">
@@ -7307,19 +7563,19 @@
     <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G79" s="20"/>
       <c r="H79" s="20">
@@ -7330,19 +7586,19 @@
     <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G80" s="20"/>
       <c r="H80" s="20">
@@ -7353,19 +7609,19 @@
     <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G81" s="20"/>
       <c r="H81" s="20">
@@ -7376,19 +7632,19 @@
     <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E82" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G82" s="20"/>
       <c r="H82" s="20" t="b">
@@ -7399,19 +7655,19 @@
     <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E83" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="20">
@@ -7422,19 +7678,19 @@
     <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="20">
@@ -7445,19 +7701,19 @@
     <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E85" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G85" s="20"/>
       <c r="H85" s="20">
@@ -7470,13 +7726,13 @@
         <v>0</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -7487,19 +7743,19 @@
     <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E87" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G87" s="20"/>
       <c r="H87" s="20">
@@ -7510,42 +7766,42 @@
     <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E88" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G88" s="20"/>
       <c r="H88" s="20" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E89" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G89" s="20"/>
       <c r="H89" s="20" t="b">
@@ -7556,19 +7812,19 @@
     <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E90" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G90" s="20"/>
       <c r="H90" s="20">
@@ -7579,19 +7835,19 @@
     <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E91" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G91" s="20"/>
       <c r="H91" s="20">
@@ -7602,19 +7858,19 @@
     <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E92" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G92" s="20"/>
       <c r="H92" s="20">
@@ -7625,19 +7881,19 @@
     <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E93" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="20" t="b">
@@ -7648,19 +7904,19 @@
     <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E94" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="20">
@@ -7671,19 +7927,19 @@
     <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E95" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G95" s="20"/>
       <c r="H95" s="20">
@@ -7694,19 +7950,19 @@
     <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E96" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="20">
@@ -7719,13 +7975,13 @@
         <v>0</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -7736,26 +7992,26 @@
     <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E98" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="20" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15">
@@ -7763,13 +8019,13 @@
         <v>0</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -7780,19 +8036,19 @@
     <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E100" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F100" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
@@ -7801,26 +8057,26 @@
     <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E101" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F101" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G101" s="20"/>
       <c r="H101" s="20" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15">
@@ -7828,13 +8084,13 @@
         <v>0</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -7845,19 +8101,19 @@
     <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E103" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G103" s="20"/>
       <c r="H103" s="20">
@@ -7868,44 +8124,44 @@
     <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E104" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G104" s="20"/>
       <c r="H104" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I104" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E105" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="20" t="b">
@@ -7916,19 +8172,19 @@
     <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E106" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
@@ -7939,13 +8195,13 @@
         <v>0</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
@@ -7956,44 +8212,44 @@
     <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E108" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G108" s="20"/>
       <c r="H108" s="20" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I108" s="20" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E109" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="20">
@@ -8004,19 +8260,19 @@
     <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E110" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G110" s="20"/>
       <c r="H110" s="20">
@@ -8027,19 +8283,19 @@
     <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E111" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G111" s="20"/>
       <c r="H111" s="20">
@@ -8050,19 +8306,19 @@
     <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E112" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G112" s="20"/>
       <c r="H112" s="20">
@@ -8073,19 +8329,19 @@
     <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E113" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F113" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G113" s="20"/>
       <c r="H113" s="20">
@@ -8096,19 +8352,19 @@
     <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E114" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G114" s="20"/>
       <c r="H114" s="20">
@@ -8121,13 +8377,13 @@
         <v>0</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
@@ -8138,19 +8394,19 @@
     <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E116" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="20">
@@ -8161,19 +8417,19 @@
     <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E117" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G117" s="20"/>
       <c r="H117" s="20">
@@ -8184,19 +8440,19 @@
     <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E118" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F118" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G118" s="20"/>
       <c r="H118" s="20" t="b">
@@ -8209,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -8226,19 +8482,19 @@
     <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E120" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G120" s="20"/>
       <c r="H120" s="20">
@@ -8249,19 +8505,19 @@
     <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E121" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F121" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="20">
@@ -8272,19 +8528,19 @@
     <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E122" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F122" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G122" s="20"/>
       <c r="H122" s="20">
@@ -8295,19 +8551,19 @@
     <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E123" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G123" s="20"/>
       <c r="H123" s="20">
@@ -8318,19 +8574,19 @@
     <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E124" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F124" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G124" s="20"/>
       <c r="H124" s="20" t="b">
@@ -8341,19 +8597,19 @@
     <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E125" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G125" s="20"/>
       <c r="H125" s="20" t="b">
@@ -8366,13 +8622,13 @@
         <v>0</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
@@ -8383,44 +8639,44 @@
     <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E127" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F127" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G127" s="20"/>
       <c r="H127" s="20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I127" s="20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E128" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F128" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G128" s="20"/>
       <c r="H128" s="20" t="b">
@@ -8431,19 +8687,19 @@
     <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E129" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F129" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G129" s="20"/>
       <c r="H129" s="20">
@@ -8454,19 +8710,19 @@
     <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E130" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F130" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G130" s="20"/>
       <c r="H130" s="20">
@@ -8477,19 +8733,19 @@
     <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E131" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G131" s="20"/>
       <c r="H131" s="20">
@@ -8500,19 +8756,19 @@
     <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E132" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G132" s="20"/>
       <c r="H132" s="20" t="b">
@@ -8523,19 +8779,19 @@
     <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E133" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F133" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G133" s="20"/>
       <c r="H133" s="20">
@@ -8546,19 +8802,19 @@
     <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E134" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F134" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G134" s="20"/>
       <c r="H134" s="20">
@@ -8569,19 +8825,19 @@
     <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E135" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F135" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G135" s="20"/>
       <c r="H135" s="20">
@@ -8594,13 +8850,13 @@
         <v>0</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
@@ -8611,44 +8867,44 @@
     <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E137" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F137" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G137" s="20"/>
       <c r="H137" s="20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I137" s="20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E138" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G138" s="20"/>
       <c r="H138" s="20"/>
@@ -8657,19 +8913,19 @@
     <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E139" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G139" s="20"/>
       <c r="H139" s="20">
@@ -8680,19 +8936,19 @@
     <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E140" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G140" s="20"/>
       <c r="H140" s="20">
@@ -8703,19 +8959,19 @@
     <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E141" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F141" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G141" s="20"/>
       <c r="H141" s="20">
@@ -8726,19 +8982,19 @@
     <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E142" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F142" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G142" s="20"/>
       <c r="H142" s="20">
@@ -8749,19 +9005,19 @@
     <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E143" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F143" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G143" s="20"/>
       <c r="H143" s="20" t="b">
@@ -8772,19 +9028,19 @@
     <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E144" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F144" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G144" s="20"/>
       <c r="H144" s="20">
@@ -8795,19 +9051,19 @@
     <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E145" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F145" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G145" s="20"/>
       <c r="H145" s="20">
@@ -8818,19 +9074,19 @@
     <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E146" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F146" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G146" s="20"/>
       <c r="H146" s="20">
@@ -8841,19 +9097,19 @@
     <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E147" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F147" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G147" s="20"/>
       <c r="H147" s="20" t="b">
@@ -8864,19 +9120,19 @@
     <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E148" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F148" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G148" s="20"/>
       <c r="H148" s="20">
@@ -8887,19 +9143,19 @@
     <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E149" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F149" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="20">
@@ -8910,19 +9166,19 @@
     <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D150" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E150" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F150" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G150" s="20"/>
       <c r="H150" s="20">
@@ -8935,13 +9191,13 @@
         <v>0</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
@@ -8952,19 +9208,19 @@
     <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D152" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E152" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F152" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G152" s="20"/>
       <c r="H152" s="20">
@@ -8977,13 +9233,13 @@
         <v>0</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D153" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
@@ -8994,46 +9250,46 @@
     <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E154" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F154" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G154" s="20"/>
       <c r="H154" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I154" s="20"/>
     </row>
     <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D155" s="20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E155" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F155" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G155" s="20"/>
       <c r="H155" s="20" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I155" s="20"/>
     </row>
@@ -9042,13 +9298,13 @@
         <v>0</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D156" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
@@ -9059,44 +9315,44 @@
     <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E157" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F157" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G157" s="20"/>
       <c r="H157" s="20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I157" s="20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D158" s="20" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E158" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F158" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G158" s="20"/>
       <c r="H158" s="20">
@@ -9107,19 +9363,19 @@
     <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D159" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E159" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F159" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G159" s="20"/>
       <c r="H159" s="20" t="b">
@@ -9130,19 +9386,19 @@
     <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D160" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E160" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F160" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G160" s="20"/>
       <c r="H160" s="20">
@@ -9153,19 +9409,19 @@
     <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E161" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F161" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G161" s="20"/>
       <c r="H161" s="20">
@@ -9176,19 +9432,19 @@
     <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E162" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F162" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G162" s="20"/>
       <c r="H162" s="20">
@@ -9199,19 +9455,19 @@
     <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D163" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E163" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F163" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G163" s="20"/>
       <c r="H163" s="20" t="b">
@@ -9222,19 +9478,19 @@
     <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E164" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F164" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G164" s="20"/>
       <c r="H164" s="20">
@@ -9245,19 +9501,19 @@
     <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E165" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F165" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G165" s="20"/>
       <c r="H165" s="20">
@@ -9268,19 +9524,19 @@
     <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D166" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E166" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F166" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G166" s="20"/>
       <c r="H166" s="20">
@@ -9293,13 +9549,13 @@
         <v>0</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="20"/>
@@ -9310,44 +9566,44 @@
     <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E168" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F168" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G168" s="20"/>
       <c r="H168" s="20" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I168" s="20" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E169" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F169" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G169" s="20"/>
       <c r="H169" s="20">
@@ -9358,19 +9614,19 @@
     <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E170" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F170" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G170" s="20"/>
       <c r="H170" s="20" t="b">
@@ -9381,19 +9637,19 @@
     <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E171" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F171" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G171" s="20"/>
       <c r="H171" s="20">
@@ -9404,19 +9660,19 @@
     <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D172" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E172" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F172" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G172" s="20"/>
       <c r="H172" s="20">
@@ -9427,19 +9683,19 @@
     <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E173" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F173" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G173" s="20"/>
       <c r="H173" s="20">
@@ -9450,19 +9706,19 @@
     <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E174" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F174" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G174" s="20"/>
       <c r="H174" s="20" t="b">
@@ -9473,19 +9729,19 @@
     <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D175" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E175" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F175" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G175" s="20"/>
       <c r="H175" s="20">
@@ -9496,19 +9752,19 @@
     <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E176" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F176" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G176" s="20"/>
       <c r="H176" s="20">
@@ -9519,19 +9775,19 @@
     <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E177" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F177" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G177" s="20"/>
       <c r="H177" s="20">
@@ -9544,13 +9800,13 @@
         <v>0</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D178" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
@@ -9561,19 +9817,19 @@
     <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D179" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E179" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F179" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G179" s="20"/>
       <c r="H179" s="20">
@@ -9584,19 +9840,19 @@
     <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E180" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F180" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G180" s="20"/>
       <c r="H180" s="20">
@@ -9607,19 +9863,19 @@
     <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E181" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F181" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G181" s="20"/>
       <c r="H181" s="20">
@@ -9630,19 +9886,19 @@
     <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E182" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F182" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G182" s="20"/>
       <c r="H182" s="20">
@@ -9655,13 +9911,13 @@
         <v>0</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
@@ -9672,19 +9928,19 @@
     <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E184" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F184" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G184" s="20"/>
       <c r="H184" s="20">
@@ -9695,19 +9951,19 @@
     <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E185" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F185" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G185" s="20"/>
       <c r="H185" s="20">
@@ -9718,19 +9974,19 @@
     <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E186" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F186" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G186" s="20"/>
       <c r="H186" s="20">
@@ -9741,19 +9997,19 @@
     <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E187" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F187" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G187" s="20"/>
       <c r="H187" s="20">
@@ -9766,13 +10022,13 @@
         <v>0</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
@@ -9783,19 +10039,19 @@
     <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E189" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F189" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G189" s="20"/>
       <c r="H189" s="20"/>
@@ -9804,19 +10060,19 @@
     <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D190" s="20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E190" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F190" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G190" s="20"/>
       <c r="H190" s="20" t="b">
@@ -9829,13 +10085,13 @@
         <v>0</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
@@ -9846,19 +10102,19 @@
     <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E192" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F192" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G192" s="20"/>
       <c r="H192" s="20" t="b">
@@ -9869,44 +10125,44 @@
     <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E193" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F193" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G193" s="20"/>
       <c r="H193" s="20" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I193" s="20" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E194" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F194" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G194" s="20"/>
       <c r="H194" s="20"/>
@@ -9915,51 +10171,51 @@
     <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E195" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F195" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G195" s="20"/>
       <c r="H195" s="20" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I195" s="20" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E196" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F196" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G196" s="20"/>
       <c r="H196" s="20" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I196" s="20" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15">
@@ -9967,13 +10223,13 @@
         <v>0</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -9984,44 +10240,44 @@
     <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E198" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F198" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G198" s="20"/>
       <c r="H198" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I198" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E199" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F199" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G199" s="20"/>
       <c r="H199" s="20">
@@ -10032,19 +10288,19 @@
     <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E200" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F200" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G200" s="20"/>
       <c r="H200" s="20">
@@ -10055,19 +10311,19 @@
     <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E201" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F201" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G201" s="20"/>
       <c r="H201" s="20">
@@ -10078,19 +10334,19 @@
     <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E202" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F202" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G202" s="20"/>
       <c r="H202" s="20">
@@ -10101,19 +10357,19 @@
     <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D203" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E203" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F203" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G203" s="20"/>
       <c r="H203" s="20" t="b">
@@ -10124,19 +10380,19 @@
     <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D204" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E204" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F204" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G204" s="20"/>
       <c r="H204" s="20">
@@ -10147,19 +10403,19 @@
     <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E205" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F205" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G205" s="20"/>
       <c r="H205" s="20">
@@ -10170,19 +10426,19 @@
     <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E206" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F206" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G206" s="20"/>
       <c r="H206" s="20">
@@ -10195,13 +10451,13 @@
         <v>0</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D207" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
@@ -10212,44 +10468,44 @@
     <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D208" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E208" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F208" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G208" s="20"/>
       <c r="H208" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I208" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D209" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E209" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F209" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G209" s="20"/>
       <c r="H209" s="20">
@@ -10260,19 +10516,19 @@
     <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E210" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F210" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G210" s="20"/>
       <c r="H210" s="20">
@@ -10283,19 +10539,19 @@
     <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E211" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F211" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G211" s="20"/>
       <c r="H211" s="20">
@@ -10306,19 +10562,19 @@
     <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E212" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F212" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G212" s="20"/>
       <c r="H212" s="20">
@@ -10329,19 +10585,19 @@
     <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E213" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F213" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G213" s="20"/>
       <c r="H213" s="20" t="b">
@@ -10352,19 +10608,19 @@
     <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D214" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E214" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F214" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G214" s="20"/>
       <c r="H214" s="20">
@@ -10375,19 +10631,19 @@
     <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D215" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E215" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F215" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G215" s="20"/>
       <c r="H215" s="20">
@@ -10398,19 +10654,19 @@
     <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E216" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F216" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G216" s="20"/>
       <c r="H216" s="20">
@@ -10423,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
@@ -10440,19 +10696,19 @@
     <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D218" s="20" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E218" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F218" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G218" s="20"/>
       <c r="H218" s="20"/>
@@ -10461,19 +10717,19 @@
     <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E219" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F219" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G219" s="20"/>
       <c r="H219" s="20">
@@ -10484,19 +10740,19 @@
     <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D220" s="20" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E220" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F220" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G220" s="20"/>
       <c r="H220" s="20" t="b">
@@ -10507,19 +10763,19 @@
     <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D221" s="20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E221" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F221" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G221" s="20"/>
       <c r="H221" s="20">
@@ -10530,19 +10786,19 @@
     <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D222" s="20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E222" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F222" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G222" s="20"/>
       <c r="H222" s="20">
@@ -10553,19 +10809,19 @@
     <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D223" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E223" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F223" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G223" s="20"/>
       <c r="H223" s="20" t="b">
@@ -10576,19 +10832,19 @@
     <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D224" s="20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E224" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F224" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G224" s="20"/>
       <c r="H224" s="20">
@@ -10599,19 +10855,19 @@
     <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D225" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E225" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F225" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G225" s="20"/>
       <c r="H225" s="20">
@@ -10622,19 +10878,19 @@
     <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D226" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E226" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F226" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G226" s="20"/>
       <c r="H226" s="20" t="b">
@@ -10645,19 +10901,19 @@
     <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D227" s="20" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E227" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F227" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G227" s="20"/>
       <c r="H227" s="20">
@@ -10668,19 +10924,19 @@
     <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D228" s="20" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E228" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F228" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G228" s="20"/>
       <c r="H228" s="20">
@@ -10691,19 +10947,19 @@
     <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D229" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E229" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F229" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G229" s="20"/>
       <c r="H229" s="20">
@@ -10714,19 +10970,19 @@
     <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D230" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E230" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F230" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G230" s="20"/>
       <c r="H230" s="20">
@@ -10737,19 +10993,19 @@
     <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D231" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E231" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F231" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G231" s="20"/>
       <c r="H231" s="20">
@@ -10760,19 +11016,19 @@
     <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D232" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E232" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F232" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G232" s="20"/>
       <c r="H232" s="20">
@@ -10783,19 +11039,19 @@
     <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D233" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E233" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F233" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G233" s="20"/>
       <c r="H233" s="20">
@@ -10808,13 +11064,13 @@
         <v>0</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D234" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -10825,19 +11081,19 @@
     <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D235" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E235" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F235" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G235" s="20"/>
       <c r="H235" s="20"/>
@@ -10846,19 +11102,19 @@
     <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D236" s="20" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E236" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F236" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G236" s="20"/>
       <c r="H236" s="20">
@@ -10869,19 +11125,19 @@
     <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E237" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F237" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G237" s="20"/>
       <c r="H237" s="20" t="b">
@@ -10892,19 +11148,19 @@
     <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D238" s="20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E238" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F238" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G238" s="20"/>
       <c r="H238" s="20">
@@ -10915,19 +11171,19 @@
     <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E239" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F239" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G239" s="20"/>
       <c r="H239" s="20">
@@ -10938,19 +11194,19 @@
     <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E240" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F240" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G240" s="20"/>
       <c r="H240" s="20" t="b">
@@ -10961,19 +11217,19 @@
     <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E241" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F241" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G241" s="20"/>
       <c r="H241" s="20">
@@ -10984,19 +11240,19 @@
     <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E242" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F242" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G242" s="20"/>
       <c r="H242" s="20">
@@ -11007,19 +11263,19 @@
     <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E243" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F243" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G243" s="20"/>
       <c r="H243" s="20" t="b">
@@ -11030,19 +11286,19 @@
     <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E244" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F244" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G244" s="20"/>
       <c r="H244" s="20">
@@ -11053,19 +11309,19 @@
     <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E245" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F245" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G245" s="20"/>
       <c r="H245" s="20">
@@ -11076,19 +11332,19 @@
     <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E246" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F246" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G246" s="20"/>
       <c r="H246" s="20">
@@ -11099,19 +11355,19 @@
     <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D247" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E247" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F247" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G247" s="20"/>
       <c r="H247" s="20">
@@ -11122,19 +11378,19 @@
     <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D248" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E248" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F248" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G248" s="20"/>
       <c r="H248" s="20">
@@ -11145,19 +11401,19 @@
     <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E249" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F249" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G249" s="20"/>
       <c r="H249" s="20">
@@ -11168,19 +11424,19 @@
     <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D250" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E250" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F250" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G250" s="20"/>
       <c r="H250" s="20">
@@ -11193,13 +11449,13 @@
         <v>0</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -11210,44 +11466,44 @@
     <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E252" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F252" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G252" s="20"/>
       <c r="H252" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I252" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E253" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F253" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G253" s="20"/>
       <c r="H253" s="20">
@@ -11258,19 +11514,19 @@
     <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E254" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F254" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G254" s="20"/>
       <c r="H254" s="20">
@@ -11281,19 +11537,19 @@
     <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E255" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F255" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G255" s="20"/>
       <c r="H255" s="20">
@@ -11304,19 +11560,19 @@
     <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E256" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F256" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G256" s="20"/>
       <c r="H256" s="20">
@@ -11329,13 +11585,13 @@
         <v>0</v>
       </c>
       <c r="B257" s="20" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D257" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -11346,44 +11602,44 @@
     <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E258" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F258" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G258" s="20"/>
       <c r="H258" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I258" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E259" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F259" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G259" s="20"/>
       <c r="H259" s="20">
@@ -11396,13 +11652,13 @@
         <v>0</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -11415,13 +11671,13 @@
         <v>0</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -11434,13 +11690,13 @@
         <v>0</v>
       </c>
       <c r="B262" s="20" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D262" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -11451,19 +11707,19 @@
     <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D263" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E263" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F263" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G263" s="20"/>
       <c r="H263" s="20"/>
@@ -11472,19 +11728,19 @@
     <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D264" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E264" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F264" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G264" s="20"/>
       <c r="H264" s="20" t="b">
@@ -11495,19 +11751,19 @@
     <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D265" s="20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E265" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F265" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G265" s="20"/>
       <c r="H265" s="20" t="b">
@@ -11518,19 +11774,19 @@
     <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C266" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D266" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E266" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F266" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G266" s="20"/>
       <c r="H266" s="20" t="b">
@@ -11541,19 +11797,19 @@
     <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E267" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F267" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G267" s="20"/>
       <c r="H267" s="20">
@@ -11564,19 +11820,19 @@
     <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C268" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D268" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E268" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F268" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G268" s="20"/>
       <c r="H268" s="20">
@@ -11587,19 +11843,19 @@
     <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C269" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D269" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E269" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F269" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G269" s="20"/>
       <c r="H269" s="20">
@@ -11610,19 +11866,19 @@
     <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C270" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D270" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E270" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F270" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G270" s="20"/>
       <c r="H270" s="20" t="b">
@@ -11633,19 +11889,19 @@
     <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E271" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F271" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G271" s="20"/>
       <c r="H271" s="20">
@@ -11656,19 +11912,19 @@
     <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C272" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E272" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F272" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G272" s="20"/>
       <c r="H272" s="20">
@@ -11679,19 +11935,19 @@
     <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C273" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E273" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F273" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G273" s="20"/>
       <c r="H273" s="20">
@@ -11704,13 +11960,13 @@
         <v>0</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -11721,19 +11977,19 @@
     <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E275" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F275" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G275" s="20"/>
       <c r="H275" s="20">
@@ -11746,13 +12002,13 @@
         <v>0</v>
       </c>
       <c r="B276" s="20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D276" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -11763,44 +12019,44 @@
     <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E277" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F277" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G277" s="20"/>
       <c r="H277" s="20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I277" s="20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C278" s="20" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D278" s="20" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E278" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F278" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G278" s="20"/>
       <c r="H278" s="20">
@@ -11811,19 +12067,19 @@
     <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D279" s="20" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E279" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F279" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G279" s="20"/>
       <c r="H279" s="20">
@@ -11834,19 +12090,19 @@
     <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D280" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E280" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F280" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G280" s="20"/>
       <c r="H280" s="20" t="b">
@@ -11857,19 +12113,19 @@
     <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D281" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E281" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F281" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G281" s="20"/>
       <c r="H281" s="20">
@@ -11880,19 +12136,19 @@
     <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C282" s="20" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D282" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E282" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F282" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G282" s="20"/>
       <c r="H282" s="20">
@@ -11903,19 +12159,19 @@
     <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D283" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E283" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F283" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G283" s="20"/>
       <c r="H283" s="20">
@@ -11926,19 +12182,19 @@
     <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C284" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D284" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E284" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F284" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G284" s="20"/>
       <c r="H284" s="20" t="b">
@@ -11949,19 +12205,19 @@
     <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C285" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D285" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E285" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F285" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G285" s="20"/>
       <c r="H285" s="20">
@@ -11972,19 +12228,19 @@
     <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C286" s="20" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D286" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E286" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F286" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G286" s="20"/>
       <c r="H286" s="20">
@@ -11995,19 +12251,19 @@
     <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C287" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D287" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E287" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F287" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G287" s="20"/>
       <c r="H287" s="20">
@@ -12020,13 +12276,13 @@
         <v>0</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D288" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -12037,19 +12293,19 @@
     <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C289" s="20" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D289" s="20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E289" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F289" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G289" s="20"/>
       <c r="H289" s="20">
@@ -12062,13 +12318,13 @@
         <v>0</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D290" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -12079,19 +12335,19 @@
     <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C291" s="20" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D291" s="20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E291" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F291" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G291" s="20"/>
       <c r="H291" s="20"/>
@@ -12102,13 +12358,13 @@
         <v>0</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D292" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -12119,19 +12375,19 @@
     <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C293" s="20" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D293" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E293" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F293" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G293" s="20"/>
       <c r="H293" s="20"/>
@@ -12142,13 +12398,13 @@
         <v>0</v>
       </c>
       <c r="B294" s="20" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C294" s="20" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D294" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -12159,19 +12415,19 @@
     <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D295" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E295" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F295" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G295" s="20"/>
       <c r="H295" s="20"/>
@@ -12182,13 +12438,13 @@
         <v>0</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D296" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -12199,19 +12455,19 @@
     <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C297" s="20" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D297" s="20" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E297" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F297" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G297" s="20"/>
       <c r="H297" s="20">
@@ -12224,13 +12480,13 @@
         <v>0</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D298" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -12241,44 +12497,44 @@
     <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D299" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E299" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F299" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G299" s="20"/>
       <c r="H299" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I299" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D300" s="20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E300" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F300" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G300" s="20"/>
       <c r="H300" s="20">
@@ -12289,19 +12545,19 @@
     <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D301" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E301" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F301" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G301" s="20"/>
       <c r="H301" s="20">
@@ -12312,19 +12568,19 @@
     <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D302" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E302" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F302" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G302" s="20"/>
       <c r="H302" s="20">
@@ -12335,19 +12591,19 @@
     <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D303" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E303" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F303" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G303" s="20"/>
       <c r="H303" s="20">
@@ -12358,19 +12614,19 @@
     <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D304" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E304" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F304" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G304" s="20"/>
       <c r="H304" s="20" t="b">
@@ -12381,19 +12637,19 @@
     <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D305" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E305" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F305" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G305" s="20"/>
       <c r="H305" s="20">
@@ -12404,19 +12660,19 @@
     <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D306" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E306" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F306" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G306" s="20"/>
       <c r="H306" s="20">
@@ -12427,19 +12683,19 @@
     <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D307" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E307" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F307" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G307" s="20"/>
       <c r="H307" s="20">
@@ -12452,13 +12708,13 @@
         <v>0</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C308" s="20" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D308" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -12469,19 +12725,19 @@
     <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C309" s="20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D309" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E309" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F309" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G309" s="20"/>
       <c r="H309" s="20">
@@ -12492,19 +12748,19 @@
     <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D310" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E310" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F310" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G310" s="20"/>
       <c r="H310" s="20">
@@ -12515,19 +12771,19 @@
     <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C311" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D311" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E311" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F311" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G311" s="20"/>
       <c r="H311" s="20">
@@ -12538,19 +12794,19 @@
     <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C312" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D312" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E312" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F312" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G312" s="20"/>
       <c r="H312" s="20">
@@ -12563,13 +12819,13 @@
         <v>0</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C313" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D313" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -12580,19 +12836,19 @@
     <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D314" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E314" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F314" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G314" s="20"/>
       <c r="H314" s="20">
@@ -12603,19 +12859,19 @@
     <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C315" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D315" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E315" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F315" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G315" s="20"/>
       <c r="H315" s="20">
@@ -12626,26 +12882,26 @@
     <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C316" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D316" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E316" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F316" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G316" s="20"/>
       <c r="H316" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I316" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="15">
@@ -12653,13 +12909,13 @@
         <v>0</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C317" s="20" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D317" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -12670,44 +12926,44 @@
     <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C318" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D318" s="20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E318" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F318" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G318" s="20"/>
       <c r="H318" s="20" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I318" s="20" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C319" s="20" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D319" s="20" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E319" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F319" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G319" s="20"/>
       <c r="H319" s="20">
@@ -12720,13 +12976,13 @@
         <v>0</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C320" s="20" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D320" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -12737,19 +12993,19 @@
     <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C321" s="20" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D321" s="20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E321" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F321" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G321" s="20"/>
       <c r="H321" s="20"/>
@@ -12758,19 +13014,19 @@
     <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C322" s="20" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D322" s="20" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E322" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F322" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G322" s="20"/>
       <c r="H322" s="20"/>
@@ -12779,19 +13035,19 @@
     <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C323" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D323" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E323" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F323" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G323" s="20"/>
       <c r="H323" s="20" t="b">
@@ -12804,13 +13060,13 @@
         <v>0</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C324" s="20" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D324" s="20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -12823,13 +13079,13 @@
         <v>0</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D325" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -12840,51 +13096,51 @@
     <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C326" s="20" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D326" s="20" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E326" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F326" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G326" s="20"/>
       <c r="H326" s="20" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I326" s="20" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C327" s="20" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D327" s="20" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E327" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F327" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G327" s="20"/>
       <c r="H327" s="20" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I327" s="20" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/spec/files/small_list.xlsx
+++ b/spec/files/small_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="2060" windowWidth="25040" windowHeight="15500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="472">
   <si>
     <t>type</t>
   </si>
@@ -1438,6 +1438,12 @@
   </si>
   <si>
     <t>You can change the identifier (which becomes the file name for the zip and json file) and the seed model location.</t>
+  </si>
+  <si>
+    <t>some data source</t>
+  </si>
+  <si>
+    <t>some note</t>
   </si>
 </sst>
 </file>
@@ -1550,8 +1556,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1235">
+  <cellStyleXfs count="1255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2833,9 +2859,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2850,8 +2873,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1235">
+  <cellStyles count="1255">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3469,6 +3495,16 @@
     <cellStyle name="Followed Hyperlink" xfId="1230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1232" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1254" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4086,6 +4122,16 @@
     <cellStyle name="Hyperlink" xfId="1229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1231" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1253" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4487,8 +4533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4502,11 +4548,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="24" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4514,7 +4560,7 @@
       <c r="A2" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -4534,7 +4580,7 @@
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>457</v>
       </c>
       <c r="C4" s="3" t="str">
@@ -4553,7 +4599,7 @@
       <c r="A5" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>457</v>
       </c>
       <c r="C5" s="3" t="str">
@@ -4572,7 +4618,7 @@
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="12"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -4581,7 +4627,7 @@
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>461</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4592,7 +4638,7 @@
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>445</v>
       </c>
     </row>
@@ -4600,7 +4646,7 @@
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>451</v>
       </c>
     </row>
@@ -4608,7 +4654,7 @@
       <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="14" t="s">
@@ -4619,7 +4665,7 @@
       <c r="A13" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4627,7 +4673,7 @@
       <c r="A15" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="14" t="s">
@@ -4638,7 +4684,7 @@
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>466</v>
       </c>
     </row>
@@ -4646,7 +4692,7 @@
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>100</v>
       </c>
     </row>
@@ -4654,7 +4700,7 @@
       <c r="A18" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>20</v>
       </c>
       <c r="E18" s="2"/>
@@ -4663,7 +4709,7 @@
       <c r="A20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -4676,7 +4722,7 @@
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>446</v>
       </c>
     </row>
@@ -4684,7 +4730,7 @@
       <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -4701,13 +4747,13 @@
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>447</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -4718,7 +4764,7 @@
       <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -4758,9 +4804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4800,14 +4846,14 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
@@ -4942,7 +4988,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" ht="28">
       <c r="A6"/>
       <c r="B6" t="s">
         <v>25</v>
@@ -4979,7 +5025,9 @@
       <c r="N6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>470</v>
+      </c>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:22">
@@ -5092,7 +5140,9 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="2"/>
+      <c r="P10" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11"/>
@@ -5250,6 +5300,7 @@
       <c r="N16" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:14" customFormat="1">
       <c r="B17" t="s">

--- a/spec/files/small_list.xlsx
+++ b/spec/files/small_list.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="12816" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
     <sheet name="Setup" sheetId="7" r:id="rId2"/>
     <sheet name="Variables" sheetId="2" r:id="rId3"/>
-    <sheet name="BCL Measure Data" sheetId="10" r:id="rId4"/>
+    <sheet name="Outputs" sheetId="11" r:id="rId4"/>
+    <sheet name="BCL Measure Data" sheetId="10" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$W$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$13</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="479">
   <si>
     <t>type</t>
   </si>
@@ -1444,6 +1446,27 @@
   </si>
   <si>
     <t>some note</t>
+  </si>
+  <si>
+    <t>Variable Display Name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>objective function</t>
+  </si>
+  <si>
+    <t>objective function target</t>
+  </si>
+  <si>
+    <t>true/false</t>
+  </si>
+  <si>
+    <t>(double)</t>
   </si>
 </sst>
 </file>
@@ -4145,12 +4168,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Instructions"/>
       <sheetName val="Setup"/>
       <sheetName val="Variables"/>
+      <sheetName val="Outputs"/>
       <sheetName val="BCL Measure Data"/>
       <sheetName val="Lookups"/>
     </sheetNames>
@@ -4159,7 +4183,8 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
         <row r="2">
           <cell r="A2" t="str">
             <v>m2.xlarge</v>
@@ -4503,17 +4528,17 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -4537,17 +4562,17 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
       <c r="C1" s="21"/>
@@ -4556,7 +4581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>452</v>
       </c>
@@ -4565,7 +4590,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>453</v>
       </c>
@@ -4576,7 +4601,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -4595,7 +4620,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>459</v>
       </c>
@@ -4614,7 +4639,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="13" customFormat="1">
+    <row r="7" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -4623,7 +4648,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -4634,7 +4659,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -4642,7 +4667,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -4650,7 +4675,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
@@ -4661,7 +4686,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>464</v>
       </c>
@@ -4669,7 +4694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>465</v>
       </c>
@@ -4680,7 +4705,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4688,7 +4713,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -4696,7 +4721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>467</v>
       </c>
@@ -4705,7 +4730,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>38</v>
       </c>
@@ -4718,7 +4743,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4726,7 +4751,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
@@ -4743,7 +4768,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28">
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -4760,7 +4785,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
@@ -4804,30 +4829,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="5"/>
-    <col min="10" max="15" width="11.5" style="1"/>
-    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5" style="1"/>
+    <col min="9" max="9" width="11.44140625" style="5"/>
+    <col min="10" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.44140625" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.5" style="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18">
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -4855,7 +4880,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -4868,7 +4893,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="45">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -4933,7 +4958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -4957,7 +4982,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5" t="s">
         <v>24</v>
@@ -4988,7 +5013,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="28">
+    <row r="6" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" t="s">
         <v>25</v>
@@ -5030,7 +5055,7 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>24</v>
@@ -5058,7 +5083,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>24</v>
@@ -5086,7 +5111,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>24</v>
@@ -5114,7 +5139,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>24</v>
@@ -5144,7 +5169,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>24</v>
@@ -5172,7 +5197,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>24</v>
@@ -5200,7 +5225,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>24</v>
@@ -5228,7 +5253,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" customFormat="1">
+    <row r="14" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" t="b">
         <v>1</v>
       </c>
@@ -5242,7 +5267,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:22" customFormat="1">
+    <row r="15" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -5265,7 +5290,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:22" customFormat="1">
+    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -5302,7 +5327,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:14" customFormat="1">
+    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -5322,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1">
+    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -5342,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1">
+    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -5362,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" customFormat="1" ht="15">
+    <row r="20" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="b">
         <v>1</v>
       </c>
@@ -5386,7 +5411,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" customFormat="1" ht="15">
+    <row r="21" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
         <v>25</v>
@@ -5425,7 +5450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:14" customFormat="1" ht="15">
+    <row r="22" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -5464,7 +5489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" customFormat="1" ht="15">
+    <row r="23" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>24</v>
@@ -5487,7 +5512,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:14" customFormat="1" ht="15">
+    <row r="24" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="b">
         <v>1</v>
       </c>
@@ -5506,7 +5531,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:14" customFormat="1" ht="15">
+    <row r="25" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -5545,7 +5570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:14" customFormat="1" ht="15">
+    <row r="26" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
@@ -5568,7 +5593,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:14" customFormat="1" ht="15">
+    <row r="27" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>24</v>
@@ -5591,7 +5616,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:14" customFormat="1" ht="15">
+    <row r="28" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>24</v>
@@ -5614,7 +5639,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:14" customFormat="1" ht="15">
+    <row r="29" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="b">
         <v>1</v>
       </c>
@@ -5633,7 +5658,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:14" customFormat="1" ht="15">
+    <row r="30" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -5672,7 +5697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:14" customFormat="1" ht="15">
+    <row r="31" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
       <c r="B31" s="20" t="s">
         <v>24</v>
@@ -5695,7 +5720,7 @@
       </c>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:14" customFormat="1" ht="15">
+    <row r="32" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>24</v>
@@ -5718,7 +5743,7 @@
       </c>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:14" customFormat="1" ht="15">
+    <row r="33" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
@@ -5741,7 +5766,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:14" customFormat="1" ht="15">
+    <row r="34" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="b">
         <v>1</v>
       </c>
@@ -5760,7 +5785,7 @@
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:14" customFormat="1" ht="15">
+    <row r="35" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>24</v>
@@ -5785,7 +5810,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:14" customFormat="1" ht="15">
+    <row r="36" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -5841,25 +5866,514 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="5"/>
+    <col min="10" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+    </row>
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7" s="15"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="19"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:W13"/>
+  <mergeCells count="1">
+    <mergeCell ref="Q1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView topLeftCell="A228" workbookViewId="0">
       <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -5878,7 +6392,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>24</v>
@@ -5899,7 +6413,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>24</v>
@@ -5922,7 +6436,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>24</v>
@@ -5945,7 +6459,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>24</v>
@@ -5968,7 +6482,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>24</v>
@@ -5991,7 +6505,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>24</v>
@@ -6014,7 +6528,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>24</v>
@@ -6037,7 +6551,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>24</v>
@@ -6060,7 +6574,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>24</v>
@@ -6083,7 +6597,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -6102,7 +6616,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>24</v>
@@ -6123,7 +6637,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>24</v>
@@ -6146,7 +6660,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>24</v>
@@ -6169,7 +6683,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>24</v>
@@ -6192,7 +6706,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>24</v>
@@ -6215,7 +6729,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>24</v>
@@ -6238,7 +6752,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>24</v>
@@ -6261,7 +6775,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>24</v>
@@ -6284,7 +6798,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>24</v>
@@ -6307,7 +6821,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -6326,7 +6840,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>24</v>
@@ -6349,7 +6863,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>24</v>
@@ -6372,7 +6886,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>24</v>
@@ -6395,7 +6909,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>24</v>
@@ -6418,7 +6932,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
@@ -6441,7 +6955,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>24</v>
@@ -6464,7 +6978,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>24</v>
@@ -6487,7 +7001,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>24</v>
@@ -6510,7 +7024,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>24</v>
@@ -6533,7 +7047,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -6552,7 +7066,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>24</v>
@@ -6573,7 +7087,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
@@ -6596,7 +7110,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>24</v>
@@ -6619,7 +7133,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>24</v>
@@ -6642,7 +7156,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>24</v>
@@ -6665,7 +7179,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>24</v>
@@ -6688,7 +7202,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>24</v>
@@ -6711,7 +7225,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>24</v>
@@ -6734,7 +7248,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>24</v>
@@ -6757,7 +7271,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -6776,7 +7290,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>24</v>
@@ -6797,7 +7311,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>24</v>
@@ -6820,7 +7334,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>24</v>
@@ -6843,7 +7357,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>24</v>
@@ -6866,7 +7380,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>24</v>
@@ -6889,7 +7403,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>24</v>
@@ -6912,7 +7426,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>24</v>
@@ -6935,7 +7449,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>24</v>
@@ -6958,7 +7472,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>24</v>
@@ -6981,7 +7495,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -7000,7 +7514,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>24</v>
@@ -7021,7 +7535,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>24</v>
@@ -7044,7 +7558,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>24</v>
@@ -7067,7 +7581,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>24</v>
@@ -7090,7 +7604,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>24</v>
@@ -7113,7 +7627,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>24</v>
@@ -7136,7 +7650,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>24</v>
@@ -7159,7 +7673,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>24</v>
@@ -7182,7 +7696,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>24</v>
@@ -7205,7 +7719,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -7224,7 +7738,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>24</v>
@@ -7245,7 +7759,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>24</v>
@@ -7270,7 +7784,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>24</v>
@@ -7293,7 +7807,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>24</v>
@@ -7316,7 +7830,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>24</v>
@@ -7339,7 +7853,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>24</v>
@@ -7362,7 +7876,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>24</v>
@@ -7385,7 +7899,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>24</v>
@@ -7408,7 +7922,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>24</v>
@@ -7431,7 +7945,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>24</v>
@@ -7454,7 +7968,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -7473,7 +7987,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>24</v>
@@ -7494,7 +8008,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>24</v>
@@ -7517,7 +8031,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>24</v>
@@ -7542,7 +8056,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>24</v>
@@ -7565,7 +8079,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>24</v>
@@ -7588,7 +8102,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>24</v>
@@ -7611,7 +8125,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>24</v>
@@ -7634,7 +8148,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>24</v>
@@ -7657,7 +8171,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>24</v>
@@ -7680,7 +8194,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>24</v>
@@ -7703,7 +8217,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>24</v>
@@ -7726,7 +8240,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>24</v>
@@ -7749,7 +8263,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>24</v>
@@ -7772,7 +8286,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -7791,7 +8305,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>24</v>
@@ -7814,7 +8328,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>24</v>
@@ -7837,7 +8351,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>24</v>
@@ -7860,7 +8374,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>24</v>
@@ -7883,7 +8397,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>24</v>
@@ -7906,7 +8420,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>24</v>
@@ -7929,7 +8443,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>24</v>
@@ -7952,7 +8466,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>24</v>
@@ -7975,7 +8489,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>24</v>
@@ -7998,7 +8512,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>24</v>
@@ -8021,7 +8535,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -8040,7 +8554,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>24</v>
@@ -8065,7 +8579,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -8084,7 +8598,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>24</v>
@@ -8105,7 +8619,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="19" customHeight="1">
+    <row r="101" spans="1:9" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>24</v>
@@ -8130,7 +8644,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -8149,7 +8663,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>24</v>
@@ -8172,7 +8686,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>24</v>
@@ -8197,7 +8711,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>24</v>
@@ -8220,7 +8734,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>24</v>
@@ -8241,7 +8755,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -8260,7 +8774,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>24</v>
@@ -8285,7 +8799,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>24</v>
@@ -8308,7 +8822,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>24</v>
@@ -8331,7 +8845,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>24</v>
@@ -8354,7 +8868,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>24</v>
@@ -8377,7 +8891,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>24</v>
@@ -8400,7 +8914,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>24</v>
@@ -8423,7 +8937,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -8442,7 +8956,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>24</v>
@@ -8465,7 +8979,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>24</v>
@@ -8488,7 +9002,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>24</v>
@@ -8511,7 +9025,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -8530,7 +9044,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>24</v>
@@ -8553,7 +9067,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>24</v>
@@ -8576,7 +9090,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>24</v>
@@ -8599,7 +9113,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>24</v>
@@ -8622,7 +9136,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>24</v>
@@ -8645,7 +9159,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>24</v>
@@ -8668,7 +9182,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -8687,7 +9201,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>24</v>
@@ -8712,7 +9226,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>24</v>
@@ -8735,7 +9249,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>24</v>
@@ -8758,7 +9272,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>24</v>
@@ -8781,7 +9295,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>24</v>
@@ -8804,7 +9318,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>24</v>
@@ -8827,7 +9341,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>24</v>
@@ -8850,7 +9364,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>24</v>
@@ -8873,7 +9387,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>24</v>
@@ -8896,7 +9410,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -8915,7 +9429,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>24</v>
@@ -8940,7 +9454,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>24</v>
@@ -8961,7 +9475,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>24</v>
@@ -8984,7 +9498,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>24</v>
@@ -9007,7 +9521,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>24</v>
@@ -9030,7 +9544,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>24</v>
@@ -9053,7 +9567,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>24</v>
@@ -9076,7 +9590,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>24</v>
@@ -9099,7 +9613,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>24</v>
@@ -9122,7 +9636,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>24</v>
@@ -9145,7 +9659,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>24</v>
@@ -9168,7 +9682,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>24</v>
@@ -9191,7 +9705,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>24</v>
@@ -9214,7 +9728,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>24</v>
@@ -9237,7 +9751,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -9256,7 +9770,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>24</v>
@@ -9279,7 +9793,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -9298,7 +9812,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>24</v>
@@ -9321,7 +9835,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>24</v>
@@ -9344,7 +9858,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -9363,7 +9877,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>24</v>
@@ -9388,7 +9902,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>24</v>
@@ -9411,7 +9925,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>24</v>
@@ -9434,7 +9948,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>24</v>
@@ -9457,7 +9971,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>24</v>
@@ -9480,7 +9994,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>24</v>
@@ -9503,7 +10017,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>24</v>
@@ -9526,7 +10040,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>24</v>
@@ -9549,7 +10063,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>24</v>
@@ -9572,7 +10086,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>24</v>
@@ -9595,7 +10109,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -9614,7 +10128,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>24</v>
@@ -9639,7 +10153,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>24</v>
@@ -9662,7 +10176,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>24</v>
@@ -9685,7 +10199,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>24</v>
@@ -9708,7 +10222,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>24</v>
@@ -9731,7 +10245,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>24</v>
@@ -9754,7 +10268,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>24</v>
@@ -9777,7 +10291,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>24</v>
@@ -9800,7 +10314,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>24</v>
@@ -9823,7 +10337,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>24</v>
@@ -9846,7 +10360,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -9865,7 +10379,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>24</v>
@@ -9888,7 +10402,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>24</v>
@@ -9911,7 +10425,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>24</v>
@@ -9934,7 +10448,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>24</v>
@@ -9957,7 +10471,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -9976,7 +10490,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>24</v>
@@ -9999,7 +10513,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>24</v>
@@ -10022,7 +10536,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>24</v>
@@ -10045,7 +10559,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>24</v>
@@ -10068,7 +10582,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -10087,7 +10601,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>24</v>
@@ -10108,7 +10622,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>24</v>
@@ -10131,7 +10645,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -10150,7 +10664,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>24</v>
@@ -10173,7 +10687,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>24</v>
@@ -10198,7 +10712,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>24</v>
@@ -10219,7 +10733,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>24</v>
@@ -10244,7 +10758,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>24</v>
@@ -10269,7 +10783,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -10288,7 +10802,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>24</v>
@@ -10313,7 +10827,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>24</v>
@@ -10336,7 +10850,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>24</v>
@@ -10359,7 +10873,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>24</v>
@@ -10382,7 +10896,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>24</v>
@@ -10405,7 +10919,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>24</v>
@@ -10428,7 +10942,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>24</v>
@@ -10451,7 +10965,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>24</v>
@@ -10474,7 +10988,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>24</v>
@@ -10497,7 +11011,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -10516,7 +11030,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>24</v>
@@ -10541,7 +11055,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>24</v>
@@ -10564,7 +11078,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>24</v>
@@ -10587,7 +11101,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>24</v>
@@ -10610,7 +11124,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>24</v>
@@ -10633,7 +11147,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>24</v>
@@ -10656,7 +11170,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>24</v>
@@ -10679,7 +11193,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>24</v>
@@ -10702,7 +11216,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>24</v>
@@ -10725,7 +11239,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -10744,7 +11258,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>24</v>
@@ -10765,7 +11279,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>24</v>
@@ -10788,7 +11302,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>24</v>
@@ -10811,7 +11325,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>24</v>
@@ -10834,7 +11348,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>24</v>
@@ -10857,7 +11371,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>24</v>
@@ -10880,7 +11394,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>24</v>
@@ -10903,7 +11417,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>24</v>
@@ -10926,7 +11440,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>24</v>
@@ -10949,7 +11463,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>24</v>
@@ -10972,7 +11486,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>24</v>
@@ -10995,7 +11509,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>24</v>
@@ -11018,7 +11532,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>24</v>
@@ -11041,7 +11555,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>24</v>
@@ -11064,7 +11578,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>24</v>
@@ -11087,7 +11601,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>24</v>
@@ -11110,7 +11624,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -11129,7 +11643,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>24</v>
@@ -11150,7 +11664,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>24</v>
@@ -11173,7 +11687,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>24</v>
@@ -11196,7 +11710,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>24</v>
@@ -11219,7 +11733,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>24</v>
@@ -11242,7 +11756,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>24</v>
@@ -11265,7 +11779,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>24</v>
@@ -11288,7 +11802,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>24</v>
@@ -11311,7 +11825,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>24</v>
@@ -11334,7 +11848,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>24</v>
@@ -11357,7 +11871,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>24</v>
@@ -11380,7 +11894,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>24</v>
@@ -11403,7 +11917,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>24</v>
@@ -11426,7 +11940,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>24</v>
@@ -11449,7 +11963,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>24</v>
@@ -11472,7 +11986,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>24</v>
@@ -11495,7 +12009,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -11514,7 +12028,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>24</v>
@@ -11539,7 +12053,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>24</v>
@@ -11562,7 +12076,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>24</v>
@@ -11585,7 +12099,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>24</v>
@@ -11608,7 +12122,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>24</v>
@@ -11631,7 +12145,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -11650,7 +12164,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>24</v>
@@ -11675,7 +12189,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>24</v>
@@ -11698,7 +12212,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -11717,7 +12231,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -11736,7 +12250,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -11755,7 +12269,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>24</v>
@@ -11776,7 +12290,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>24</v>
@@ -11799,7 +12313,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>24</v>
@@ -11822,7 +12336,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>24</v>
@@ -11845,7 +12359,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>24</v>
@@ -11868,7 +12382,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>24</v>
@@ -11891,7 +12405,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>24</v>
@@ -11914,7 +12428,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>24</v>
@@ -11937,7 +12451,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>24</v>
@@ -11960,7 +12474,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>24</v>
@@ -11983,7 +12497,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>24</v>
@@ -12006,7 +12520,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -12025,7 +12539,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>24</v>
@@ -12048,7 +12562,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -12067,7 +12581,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>24</v>
@@ -12092,7 +12606,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>24</v>
@@ -12115,7 +12629,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>24</v>
@@ -12138,7 +12652,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>24</v>
@@ -12161,7 +12675,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>24</v>
@@ -12184,7 +12698,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>24</v>
@@ -12207,7 +12721,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>24</v>
@@ -12230,7 +12744,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>24</v>
@@ -12253,7 +12767,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>24</v>
@@ -12276,7 +12790,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>24</v>
@@ -12299,7 +12813,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>24</v>
@@ -12322,7 +12836,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -12341,7 +12855,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>24</v>
@@ -12364,7 +12878,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -12383,7 +12897,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>24</v>
@@ -12404,7 +12918,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -12423,7 +12937,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>24</v>
@@ -12444,7 +12958,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -12463,7 +12977,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>24</v>
@@ -12484,7 +12998,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -12503,7 +13017,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>24</v>
@@ -12526,7 +13040,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -12545,7 +13059,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>24</v>
@@ -12570,7 +13084,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>24</v>
@@ -12593,7 +13107,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>24</v>
@@ -12616,7 +13130,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>24</v>
@@ -12639,7 +13153,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>24</v>
@@ -12662,7 +13176,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>24</v>
@@ -12685,7 +13199,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>24</v>
@@ -12708,7 +13222,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>24</v>
@@ -12731,7 +13245,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>24</v>
@@ -12754,7 +13268,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -12773,7 +13287,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>24</v>
@@ -12796,7 +13310,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>24</v>
@@ -12819,7 +13333,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>24</v>
@@ -12842,7 +13356,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>24</v>
@@ -12865,7 +13379,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -12884,7 +13398,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>24</v>
@@ -12907,7 +13421,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>24</v>
@@ -12930,7 +13444,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>24</v>
@@ -12955,7 +13469,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -12974,7 +13488,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>24</v>
@@ -12999,7 +13513,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>24</v>
@@ -13022,7 +13536,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -13041,7 +13555,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>24</v>
@@ -13062,7 +13576,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>24</v>
@@ -13083,7 +13597,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>24</v>
@@ -13106,7 +13620,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -13125,7 +13639,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -13144,7 +13658,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>24</v>
@@ -13169,7 +13683,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>24</v>

--- a/spec/files/small_list.xlsx
+++ b/spec/files/small_list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="12816" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="12820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="481">
   <si>
     <t>type</t>
   </si>
@@ -1467,6 +1467,12 @@
   </si>
   <si>
     <t>(double)</t>
+  </si>
+  <si>
+    <t>2 Cores</t>
+  </si>
+  <si>
+    <t>$0.410/hour</t>
   </si>
 </sst>
 </file>
@@ -1579,8 +1585,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1255">
+  <cellStyleXfs count="1259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2900,7 +2910,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1255">
+  <cellStyles count="1259">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3528,6 +3538,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1250" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1252" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1258" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4155,6 +4167,8 @@
     <cellStyle name="Hyperlink" xfId="1249" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1251" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1257" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4168,7 +4182,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Instructions"/>
@@ -4184,52 +4198,7 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>m2.xlarge</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>2 Cores</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>$0.410/hour</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>m2.2xlarge</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>4 Cores</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>$0.820/hour</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>c3.2xlarge</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>8 Cores</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>$1.20/hour</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>cc2.8xlarge</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>16 Cores</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>$2.40/hour</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4528,17 +4497,17 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -4558,21 +4527,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
       <c r="C1" s="21"/>
@@ -4581,7 +4550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>452</v>
       </c>
@@ -4590,7 +4559,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>453</v>
       </c>
@@ -4601,45 +4570,41 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="C4" s="3" t="str">
-        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B4,[1]Lookups!$A$2:$A$5,0),2)</f>
-        <v>2 Cores</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B4,[1]Lookups!$A$2:$A$5,0),3)</f>
-        <v>$0.410/hour</v>
+      <c r="C4" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>480</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="C5" s="3" t="str">
-        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B5,[1]Lookups!$A$2:$A$5,0),2)</f>
-        <v>2 Cores</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B5,[1]Lookups!$A$2:$A$5,0),3)</f>
-        <v>$0.410/hour</v>
+      <c r="C5" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>480</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="13" customFormat="1">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -4648,7 +4613,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -4659,7 +4624,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -4667,7 +4632,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -4675,7 +4640,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
@@ -4686,7 +4651,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>464</v>
       </c>
@@ -4694,7 +4659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A15" s="12" t="s">
         <v>465</v>
       </c>
@@ -4705,7 +4670,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4713,7 +4678,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -4721,7 +4686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>467</v>
       </c>
@@ -4730,7 +4695,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A20" s="12" t="s">
         <v>38</v>
       </c>
@@ -4743,7 +4708,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4751,7 +4716,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
@@ -4768,7 +4733,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="28">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -4785,7 +4750,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
@@ -4834,25 +4799,25 @@
       <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -4880,7 +4845,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -4893,7 +4858,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="45">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -4958,7 +4923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -4982,7 +4947,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5"/>
       <c r="B5" t="s">
         <v>24</v>
@@ -5013,7 +4978,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="28">
       <c r="A6"/>
       <c r="B6" t="s">
         <v>25</v>
@@ -5055,7 +5020,7 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>24</v>
@@ -5083,7 +5048,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>24</v>
@@ -5111,7 +5076,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>24</v>
@@ -5139,7 +5104,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>24</v>
@@ -5169,7 +5134,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>24</v>
@@ -5197,7 +5162,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>24</v>
@@ -5225,7 +5190,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>24</v>
@@ -5253,7 +5218,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" customFormat="1">
       <c r="A14" t="b">
         <v>1</v>
       </c>
@@ -5267,7 +5232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" customFormat="1">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -5290,7 +5255,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" customFormat="1">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -5327,7 +5292,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" customFormat="1">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -5347,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" customFormat="1">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -5367,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" customFormat="1">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -5387,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" customFormat="1" ht="15">
       <c r="A20" s="20" t="b">
         <v>1</v>
       </c>
@@ -5411,7 +5376,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" customFormat="1" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
         <v>25</v>
@@ -5450,7 +5415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" customFormat="1" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -5489,7 +5454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" customFormat="1" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>24</v>
@@ -5512,7 +5477,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" customFormat="1" ht="15">
       <c r="A24" s="20" t="b">
         <v>1</v>
       </c>
@@ -5531,7 +5496,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" customFormat="1" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -5570,7 +5535,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" customFormat="1" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
@@ -5593,7 +5558,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" customFormat="1" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>24</v>
@@ -5616,7 +5581,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" customFormat="1" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>24</v>
@@ -5639,7 +5604,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" customFormat="1" ht="15">
       <c r="A29" s="20" t="b">
         <v>1</v>
       </c>
@@ -5658,7 +5623,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" customFormat="1" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -5697,7 +5662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" customFormat="1" ht="15">
       <c r="A31" s="20"/>
       <c r="B31" s="20" t="s">
         <v>24</v>
@@ -5720,7 +5685,7 @@
       </c>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" customFormat="1" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>24</v>
@@ -5743,7 +5708,7 @@
       </c>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" customFormat="1" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
@@ -5766,7 +5731,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" customFormat="1" ht="15">
       <c r="A34" s="20" t="b">
         <v>1</v>
       </c>
@@ -5785,7 +5750,7 @@
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" customFormat="1" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>24</v>
@@ -5810,7 +5775,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" customFormat="1" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -5868,30 +5833,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5917,7 +5882,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>472</v>
       </c>
@@ -5936,7 +5901,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="15">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -5958,7 +5923,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -5973,7 +5938,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -5990,7 +5955,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -6006,7 +5971,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="15"/>
@@ -6022,7 +5987,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -6038,7 +6003,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -6054,7 +6019,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6070,7 +6035,7 @@
       <c r="O10" s="4"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -6086,7 +6051,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -6102,7 +6067,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -6118,9 +6083,9 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" customFormat="1"/>
+    <row r="15" spans="1:22" customFormat="1"/>
+    <row r="16" spans="1:22" customFormat="1">
       <c r="C16" s="19"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -6129,10 +6094,10 @@
       <c r="N16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" customFormat="1"/>
+    <row r="18" spans="1:14" customFormat="1"/>
+    <row r="19" spans="1:14" customFormat="1"/>
+    <row r="20" spans="1:14" customFormat="1" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -6148,7 +6113,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" customFormat="1" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -6164,7 +6129,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" customFormat="1" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -6180,7 +6145,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" customFormat="1" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -6191,7 +6156,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" customFormat="1" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -6202,7 +6167,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" customFormat="1" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -6216,7 +6181,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" customFormat="1" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -6227,7 +6192,7 @@
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" customFormat="1" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -6238,7 +6203,7 @@
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" customFormat="1" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -6249,7 +6214,7 @@
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" customFormat="1" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -6260,7 +6225,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" customFormat="1" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -6274,7 +6239,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" customFormat="1" ht="15">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -6285,7 +6250,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" customFormat="1" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -6296,7 +6261,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" customFormat="1" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -6307,7 +6272,7 @@
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" customFormat="1" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -6318,7 +6283,7 @@
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" customFormat="1" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -6329,7 +6294,7 @@
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" customFormat="1" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -6350,6 +6315,11 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6361,19 +6331,19 @@
       <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -6392,7 +6362,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>24</v>
@@ -6413,7 +6383,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>24</v>
@@ -6436,7 +6406,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>24</v>
@@ -6459,7 +6429,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>24</v>
@@ -6482,7 +6452,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>24</v>
@@ -6505,7 +6475,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>24</v>
@@ -6528,7 +6498,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>24</v>
@@ -6551,7 +6521,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>24</v>
@@ -6574,7 +6544,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>24</v>
@@ -6597,7 +6567,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -6616,7 +6586,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>24</v>
@@ -6637,7 +6607,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>24</v>
@@ -6660,7 +6630,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>24</v>
@@ -6683,7 +6653,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>24</v>
@@ -6706,7 +6676,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>24</v>
@@ -6729,7 +6699,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>24</v>
@@ -6752,7 +6722,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>24</v>
@@ -6775,7 +6745,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>24</v>
@@ -6798,7 +6768,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>24</v>
@@ -6821,7 +6791,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -6840,7 +6810,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>24</v>
@@ -6863,7 +6833,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>24</v>
@@ -6886,7 +6856,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>24</v>
@@ -6909,7 +6879,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>24</v>
@@ -6932,7 +6902,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
@@ -6955,7 +6925,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>24</v>
@@ -6978,7 +6948,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>24</v>
@@ -7001,7 +6971,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>24</v>
@@ -7024,7 +6994,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>24</v>
@@ -7047,7 +7017,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -7066,7 +7036,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>24</v>
@@ -7087,7 +7057,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
@@ -7110,7 +7080,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>24</v>
@@ -7133,7 +7103,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>24</v>
@@ -7156,7 +7126,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>24</v>
@@ -7179,7 +7149,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>24</v>
@@ -7202,7 +7172,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>24</v>
@@ -7225,7 +7195,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>24</v>
@@ -7248,7 +7218,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>24</v>
@@ -7271,7 +7241,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -7290,7 +7260,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>24</v>
@@ -7311,7 +7281,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>24</v>
@@ -7334,7 +7304,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>24</v>
@@ -7357,7 +7327,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>24</v>
@@ -7380,7 +7350,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>24</v>
@@ -7403,7 +7373,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>24</v>
@@ -7426,7 +7396,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>24</v>
@@ -7449,7 +7419,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>24</v>
@@ -7472,7 +7442,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>24</v>
@@ -7495,7 +7465,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -7514,7 +7484,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>24</v>
@@ -7535,7 +7505,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>24</v>
@@ -7558,7 +7528,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>24</v>
@@ -7581,7 +7551,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>24</v>
@@ -7604,7 +7574,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>24</v>
@@ -7627,7 +7597,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>24</v>
@@ -7650,7 +7620,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>24</v>
@@ -7673,7 +7643,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>24</v>
@@ -7696,7 +7666,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>24</v>
@@ -7719,7 +7689,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -7738,7 +7708,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>24</v>
@@ -7759,7 +7729,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>24</v>
@@ -7784,7 +7754,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>24</v>
@@ -7807,7 +7777,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>24</v>
@@ -7830,7 +7800,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>24</v>
@@ -7853,7 +7823,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>24</v>
@@ -7876,7 +7846,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>24</v>
@@ -7899,7 +7869,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>24</v>
@@ -7922,7 +7892,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>24</v>
@@ -7945,7 +7915,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>24</v>
@@ -7968,7 +7938,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -7987,7 +7957,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>24</v>
@@ -8008,7 +7978,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>24</v>
@@ -8031,7 +8001,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>24</v>
@@ -8056,7 +8026,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>24</v>
@@ -8079,7 +8049,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>24</v>
@@ -8102,7 +8072,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>24</v>
@@ -8125,7 +8095,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>24</v>
@@ -8148,7 +8118,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>24</v>
@@ -8171,7 +8141,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>24</v>
@@ -8194,7 +8164,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>24</v>
@@ -8217,7 +8187,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>24</v>
@@ -8240,7 +8210,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>24</v>
@@ -8263,7 +8233,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>24</v>
@@ -8286,7 +8256,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -8305,7 +8275,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>24</v>
@@ -8328,7 +8298,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>24</v>
@@ -8351,7 +8321,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>24</v>
@@ -8374,7 +8344,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>24</v>
@@ -8397,7 +8367,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>24</v>
@@ -8420,7 +8390,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>24</v>
@@ -8443,7 +8413,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>24</v>
@@ -8466,7 +8436,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>24</v>
@@ -8489,7 +8459,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>24</v>
@@ -8512,7 +8482,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>24</v>
@@ -8535,7 +8505,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -8554,7 +8524,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>24</v>
@@ -8579,7 +8549,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -8598,7 +8568,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>24</v>
@@ -8619,7 +8589,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>24</v>
@@ -8644,7 +8614,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -8663,7 +8633,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>24</v>
@@ -8686,7 +8656,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>24</v>
@@ -8711,7 +8681,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>24</v>
@@ -8734,7 +8704,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>24</v>
@@ -8755,7 +8725,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -8774,7 +8744,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>24</v>
@@ -8799,7 +8769,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>24</v>
@@ -8822,7 +8792,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>24</v>
@@ -8845,7 +8815,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>24</v>
@@ -8868,7 +8838,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>24</v>
@@ -8891,7 +8861,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>24</v>
@@ -8914,7 +8884,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>24</v>
@@ -8937,7 +8907,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -8956,7 +8926,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>24</v>
@@ -8979,7 +8949,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>24</v>
@@ -9002,7 +8972,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>24</v>
@@ -9025,7 +8995,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -9044,7 +9014,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>24</v>
@@ -9067,7 +9037,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>24</v>
@@ -9090,7 +9060,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>24</v>
@@ -9113,7 +9083,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>24</v>
@@ -9136,7 +9106,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>24</v>
@@ -9159,7 +9129,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>24</v>
@@ -9182,7 +9152,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -9201,7 +9171,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>24</v>
@@ -9226,7 +9196,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>24</v>
@@ -9249,7 +9219,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>24</v>
@@ -9272,7 +9242,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>24</v>
@@ -9295,7 +9265,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>24</v>
@@ -9318,7 +9288,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>24</v>
@@ -9341,7 +9311,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>24</v>
@@ -9364,7 +9334,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>24</v>
@@ -9387,7 +9357,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>24</v>
@@ -9410,7 +9380,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -9429,7 +9399,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>24</v>
@@ -9454,7 +9424,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>24</v>
@@ -9475,7 +9445,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>24</v>
@@ -9498,7 +9468,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>24</v>
@@ -9521,7 +9491,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>24</v>
@@ -9544,7 +9514,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>24</v>
@@ -9567,7 +9537,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>24</v>
@@ -9590,7 +9560,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>24</v>
@@ -9613,7 +9583,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>24</v>
@@ -9636,7 +9606,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>24</v>
@@ -9659,7 +9629,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>24</v>
@@ -9682,7 +9652,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>24</v>
@@ -9705,7 +9675,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>24</v>
@@ -9728,7 +9698,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>24</v>
@@ -9751,7 +9721,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -9770,7 +9740,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>24</v>
@@ -9793,7 +9763,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -9812,7 +9782,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>24</v>
@@ -9835,7 +9805,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>24</v>
@@ -9858,7 +9828,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -9877,7 +9847,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>24</v>
@@ -9902,7 +9872,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>24</v>
@@ -9925,7 +9895,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>24</v>
@@ -9948,7 +9918,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>24</v>
@@ -9971,7 +9941,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>24</v>
@@ -9994,7 +9964,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>24</v>
@@ -10017,7 +9987,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>24</v>
@@ -10040,7 +10010,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>24</v>
@@ -10063,7 +10033,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>24</v>
@@ -10086,7 +10056,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>24</v>
@@ -10109,7 +10079,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -10128,7 +10098,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>24</v>
@@ -10153,7 +10123,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>24</v>
@@ -10176,7 +10146,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>24</v>
@@ -10199,7 +10169,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>24</v>
@@ -10222,7 +10192,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>24</v>
@@ -10245,7 +10215,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>24</v>
@@ -10268,7 +10238,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>24</v>
@@ -10291,7 +10261,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>24</v>
@@ -10314,7 +10284,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>24</v>
@@ -10337,7 +10307,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>24</v>
@@ -10360,7 +10330,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -10379,7 +10349,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>24</v>
@@ -10402,7 +10372,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>24</v>
@@ -10425,7 +10395,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>24</v>
@@ -10448,7 +10418,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>24</v>
@@ -10471,7 +10441,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -10490,7 +10460,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>24</v>
@@ -10513,7 +10483,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>24</v>
@@ -10536,7 +10506,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>24</v>
@@ -10559,7 +10529,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>24</v>
@@ -10582,7 +10552,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -10601,7 +10571,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>24</v>
@@ -10622,7 +10592,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>24</v>
@@ -10645,7 +10615,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -10664,7 +10634,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>24</v>
@@ -10687,7 +10657,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>24</v>
@@ -10712,7 +10682,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>24</v>
@@ -10733,7 +10703,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>24</v>
@@ -10758,7 +10728,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>24</v>
@@ -10783,7 +10753,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -10802,7 +10772,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>24</v>
@@ -10827,7 +10797,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>24</v>
@@ -10850,7 +10820,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>24</v>
@@ -10873,7 +10843,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>24</v>
@@ -10896,7 +10866,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>24</v>
@@ -10919,7 +10889,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>24</v>
@@ -10942,7 +10912,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>24</v>
@@ -10965,7 +10935,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>24</v>
@@ -10988,7 +10958,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>24</v>
@@ -11011,7 +10981,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -11030,7 +11000,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>24</v>
@@ -11055,7 +11025,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>24</v>
@@ -11078,7 +11048,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>24</v>
@@ -11101,7 +11071,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>24</v>
@@ -11124,7 +11094,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>24</v>
@@ -11147,7 +11117,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>24</v>
@@ -11170,7 +11140,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>24</v>
@@ -11193,7 +11163,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>24</v>
@@ -11216,7 +11186,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>24</v>
@@ -11239,7 +11209,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -11258,7 +11228,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>24</v>
@@ -11279,7 +11249,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>24</v>
@@ -11302,7 +11272,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>24</v>
@@ -11325,7 +11295,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>24</v>
@@ -11348,7 +11318,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>24</v>
@@ -11371,7 +11341,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>24</v>
@@ -11394,7 +11364,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>24</v>
@@ -11417,7 +11387,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>24</v>
@@ -11440,7 +11410,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>24</v>
@@ -11463,7 +11433,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>24</v>
@@ -11486,7 +11456,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>24</v>
@@ -11509,7 +11479,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>24</v>
@@ -11532,7 +11502,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>24</v>
@@ -11555,7 +11525,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>24</v>
@@ -11578,7 +11548,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>24</v>
@@ -11601,7 +11571,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>24</v>
@@ -11624,7 +11594,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -11643,7 +11613,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>24</v>
@@ -11664,7 +11634,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>24</v>
@@ -11687,7 +11657,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>24</v>
@@ -11710,7 +11680,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>24</v>
@@ -11733,7 +11703,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>24</v>
@@ -11756,7 +11726,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>24</v>
@@ -11779,7 +11749,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>24</v>
@@ -11802,7 +11772,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>24</v>
@@ -11825,7 +11795,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>24</v>
@@ -11848,7 +11818,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>24</v>
@@ -11871,7 +11841,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>24</v>
@@ -11894,7 +11864,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>24</v>
@@ -11917,7 +11887,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>24</v>
@@ -11940,7 +11910,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>24</v>
@@ -11963,7 +11933,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>24</v>
@@ -11986,7 +11956,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>24</v>
@@ -12009,7 +11979,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -12028,7 +11998,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>24</v>
@@ -12053,7 +12023,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>24</v>
@@ -12076,7 +12046,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>24</v>
@@ -12099,7 +12069,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>24</v>
@@ -12122,7 +12092,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>24</v>
@@ -12145,7 +12115,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -12164,7 +12134,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>24</v>
@@ -12189,7 +12159,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>24</v>
@@ -12212,7 +12182,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -12231,7 +12201,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -12250,7 +12220,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -12269,7 +12239,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>24</v>
@@ -12290,7 +12260,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>24</v>
@@ -12313,7 +12283,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>24</v>
@@ -12336,7 +12306,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>24</v>
@@ -12359,7 +12329,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>24</v>
@@ -12382,7 +12352,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>24</v>
@@ -12405,7 +12375,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>24</v>
@@ -12428,7 +12398,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>24</v>
@@ -12451,7 +12421,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>24</v>
@@ -12474,7 +12444,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>24</v>
@@ -12497,7 +12467,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>24</v>
@@ -12520,7 +12490,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -12539,7 +12509,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>24</v>
@@ -12562,7 +12532,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -12581,7 +12551,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>24</v>
@@ -12606,7 +12576,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>24</v>
@@ -12629,7 +12599,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>24</v>
@@ -12652,7 +12622,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>24</v>
@@ -12675,7 +12645,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>24</v>
@@ -12698,7 +12668,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>24</v>
@@ -12721,7 +12691,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>24</v>
@@ -12744,7 +12714,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>24</v>
@@ -12767,7 +12737,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>24</v>
@@ -12790,7 +12760,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>24</v>
@@ -12813,7 +12783,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>24</v>
@@ -12836,7 +12806,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -12855,7 +12825,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>24</v>
@@ -12878,7 +12848,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -12897,7 +12867,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>24</v>
@@ -12918,7 +12888,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -12937,7 +12907,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>24</v>
@@ -12958,7 +12928,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -12977,7 +12947,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>24</v>
@@ -12998,7 +12968,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -13017,7 +12987,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>24</v>
@@ -13040,7 +13010,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -13059,7 +13029,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>24</v>
@@ -13084,7 +13054,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>24</v>
@@ -13107,7 +13077,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>24</v>
@@ -13130,7 +13100,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>24</v>
@@ -13153,7 +13123,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>24</v>
@@ -13176,7 +13146,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>24</v>
@@ -13199,7 +13169,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>24</v>
@@ -13222,7 +13192,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>24</v>
@@ -13245,7 +13215,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>24</v>
@@ -13268,7 +13238,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -13287,7 +13257,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>24</v>
@@ -13310,7 +13280,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>24</v>
@@ -13333,7 +13303,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>24</v>
@@ -13356,7 +13326,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>24</v>
@@ -13379,7 +13349,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -13398,7 +13368,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>24</v>
@@ -13421,7 +13391,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>24</v>
@@ -13444,7 +13414,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>24</v>
@@ -13469,7 +13439,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -13488,7 +13458,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>24</v>
@@ -13513,7 +13483,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>24</v>
@@ -13536,7 +13506,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -13555,7 +13525,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>24</v>
@@ -13576,7 +13546,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>24</v>
@@ -13597,7 +13567,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>24</v>
@@ -13620,7 +13590,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -13639,7 +13609,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -13658,7 +13628,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>24</v>
@@ -13683,7 +13653,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>24</v>

--- a/spec/files/small_list.xlsx
+++ b/spec/files/small_list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="12820" activeTab="1"/>
+    <workbookView xWindow="3360" yWindow="3360" windowWidth="22240" windowHeight="12700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$W$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="484">
   <si>
     <t>type</t>
   </si>
@@ -1473,6 +1473,15 @@
   </si>
   <si>
     <t>$0.410/hour</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>function group</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1541,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1575,6 +1584,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2846,7 +2861,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2908,6 +2923,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1259">
@@ -4527,7 +4549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -5833,9 +5855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5883,35 +5905,44 @@
       <c r="V1" s="27"/>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="28" t="s">
         <v>476</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>482</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="15">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="30">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29" t="s">
+        <v>483</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="18"/>
